--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196CC0FA-A45F-4CF3-93FB-919D1780C02D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E0644-930F-4F2F-8B9C-7B911B8420CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>1 : 25 000</t>
   </si>
@@ -325,21 +325,6 @@
     <t>пластит-4</t>
   </si>
   <si>
-    <r>
-      <t>До бризантних вибухових речовин пониженої потужності відносяться:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>аміачна селітра</t>
   </si>
   <si>
@@ -383,6 +368,18 @@
   </si>
   <si>
     <t>повітряного підриву</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Variant 1</t>
+  </si>
+  <si>
+    <t>Variant 2</t>
+  </si>
+  <si>
+    <t>Variant 3</t>
   </si>
 </sst>
 </file>
@@ -669,10 +666,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -691,7 +688,7 @@
     <col min="28" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -776,8 +773,11 @@
       <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
@@ -831,13 +831,13 @@
         <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>95</v>
@@ -846,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>92</v>
@@ -878,8 +878,11 @@
       <c r="AB3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+      <c r="AC3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
@@ -896,13 +899,13 @@
         <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>95</v>
@@ -911,7 +914,7 @@
         <v>96</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>92</v>
@@ -943,8 +946,11 @@
       <c r="AB4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+      <c r="AC4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
@@ -961,13 +967,13 @@
         <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>95</v>
@@ -976,7 +982,7 @@
         <v>96</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>92</v>
@@ -1008,56 +1014,31 @@
       <c r="AB5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+      <c r="AC5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1074,28 +1055,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1111,40 +1104,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>110</v>
-      </c>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1160,14 +1143,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1175,14 +1172,10 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1199,36 +1192,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+        <v>11</v>
+      </c>
       <c r="O10" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1248,24 +1229,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1285,24 +1266,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1322,24 +1303,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1359,24 +1340,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1396,24 +1377,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="O15" s="3">
+        <v>154</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1427,18 +1396,18 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="3">
-        <v>154</v>
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1455,15 +1424,15 @@
         <v>44</v>
       </c>
       <c r="AB16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="150" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1485,10 +1454,22 @@
     </row>
     <row r="18" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1502,30 +1483,18 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="O19" s="3">
+        <v>240</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1539,18 +1508,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O20" s="3">
-        <v>240</v>
+        <v>229.43</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1567,102 +1536,77 @@
         <v>44</v>
       </c>
       <c r="AB20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="3">
-        <v>229.43</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="AB21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E0644-930F-4F2F-8B9C-7B911B8420CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078F0E6-866E-44CF-A157-9E02E1D7E7EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,109 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
-  <si>
-    <t>1 : 25 000</t>
-  </si>
-  <si>
-    <t>1 : 50 000</t>
-  </si>
-  <si>
-    <t>1 : 100 000</t>
-  </si>
-  <si>
-    <t>1 : 200 000</t>
-  </si>
-  <si>
-    <t>1 : 500 000</t>
-  </si>
-  <si>
-    <t>1 : 1 00 000</t>
-  </si>
-  <si>
-    <t>Який масштаб топографічної карти відповідає номенклатурі N-36-41-B?</t>
-  </si>
-  <si>
-    <t>Як зображується рельєф на топографічних картах?</t>
-  </si>
-  <si>
-    <t>Затемненням або освітленням ділянок місцевості</t>
-  </si>
-  <si>
-    <t>Горизонталями</t>
-  </si>
-  <si>
-    <t>Вертикалями</t>
-  </si>
-  <si>
-    <t>Ізогонами</t>
-  </si>
-  <si>
-    <t>Дирекційний кут це …</t>
-  </si>
-  <si>
-    <t>кут, що вимірюється по ходу годинникової стрілки від 0 до 360 градусів від північного направлення магнітного меридіану до визначеної точки (напрямку) на місцевості</t>
-  </si>
-  <si>
-    <t>кут, що вимірюється по ходу годинникової стрілки від 0 до 360 градусів від північного направлення географічного меридіану до заданого направлення</t>
-  </si>
-  <si>
-    <t>кут, що вимірюється на карті по ходу годинникової стрілки від 0 до 360 градусів між північним напрямком вертикальної кілометрової лінії та направленням на визначену точку</t>
-  </si>
-  <si>
-    <t>направлення на північний полюс</t>
-  </si>
-  <si>
-    <t>Магнітний азимут це …</t>
-  </si>
-  <si>
-    <t>Для чого потрібен зворотній магнітний азимут?</t>
-  </si>
-  <si>
-    <t>Для визначення напрямку руху від початкової точки на будь-який віддалений орієнтир</t>
-  </si>
-  <si>
-    <t>Для знаходження зворотного шляху</t>
-  </si>
-  <si>
-    <t>Для складання азимутальної картки</t>
-  </si>
-  <si>
-    <t>Для полегшення роботи командира</t>
-  </si>
-  <si>
-    <t>Як визначається зворотній азимут?</t>
-  </si>
-  <si>
-    <t>Необхідно до визначеного магнітного азимута додати 180°, а якщо його значення більше 180°, то відняти 360°</t>
-  </si>
-  <si>
-    <t>Необхідно від визначеного магнітного азимута відняти 180°, а якщо його значення менше 180°, то додати 180°</t>
-  </si>
-  <si>
-    <t>Необхідно від визначеного магнітного азимута відняти 180° в незалежності від його значення</t>
-  </si>
-  <si>
-    <t>Необхідно до визначеного магнітного азимута додати 180° в незалежності від його значення</t>
-  </si>
-  <si>
-    <t>50,11,20,30,38,20</t>
-  </si>
-  <si>
-    <t>5564750 6331500</t>
-  </si>
-  <si>
-    <t>Ам = α - 12°25'</t>
-  </si>
-  <si>
-    <t>Ам = α + 12°25'</t>
-  </si>
-  <si>
-    <t>Ам = α - 13°53'</t>
-  </si>
-  <si>
-    <t>Ам = α - 10°15'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -154,30 +52,9 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
     <t>Picture</t>
   </si>
   <si>
-    <t>Який магнітний азимут встановлений на компасі?</t>
-  </si>
-  <si>
-    <t>Визначте географічні координати вказаної точки. Широту та довготу вказувати градуси, хвилини та секунди через кому баз пробілів, наприклад, 52,37,40,31,37,20</t>
-  </si>
-  <si>
-    <t>Визначте повні прямокутні координати вказаної точки. Координати осі абсцис Х та координати осі ординат Y вказувати через пробіл. Приклад: 5455500 5612750</t>
-  </si>
-  <si>
-    <t>Чому буде дорівнювати азимут магнітний (Ам) якщо схилення на 2002 рік східне 10°15' (1-71), середнє відхилення меридіанів західне 2° 10' (0-36), а річна зміна схилення східна 0°04' (0-01)?</t>
-  </si>
-  <si>
-    <t>Визначте дирекційний кут направлення</t>
-  </si>
-  <si>
-    <t>Переведіть дирекційний кут направлення в азимут магнітний. Запишіть значення в градусах та хвилинах через кому. Приклад: 132,24</t>
-  </si>
-  <si>
     <t>Option 7</t>
   </si>
   <si>
@@ -188,36 +65,6 @@
   </si>
   <si>
     <t>Option 10</t>
-  </si>
-  <si>
-    <t>Як приготувати каву?</t>
-  </si>
-  <si>
-    <t>Налити води у чайник</t>
-  </si>
-  <si>
-    <t>Закипьятити чайник</t>
-  </si>
-  <si>
-    <t>Налити кипьяток у чашку</t>
-  </si>
-  <si>
-    <t>Добавити до кипьятка кави</t>
-  </si>
-  <si>
-    <t>Запарити каву</t>
-  </si>
-  <si>
-    <t>Покласти цукор</t>
-  </si>
-  <si>
-    <t>Перемышати цукор</t>
-  </si>
-  <si>
-    <t>Добавити кориці</t>
-  </si>
-  <si>
-    <t>ordering</t>
   </si>
   <si>
     <t>Correct Answer 1</t>
@@ -380,6 +227,24 @@
   </si>
   <si>
     <t>Variant 3</t>
+  </si>
+  <si>
+    <t>Засоби підриву призначені для …</t>
+  </si>
+  <si>
+    <t>ініціювання вибуху зарядів вибухових речовин та інженерних мін</t>
+  </si>
+  <si>
+    <t>для одночасного вибуху декількох зарядів або для виконання вибуху в точно встановлений час</t>
+  </si>
+  <si>
+    <t>для мінування місцевості в цілях оповіщення своїх військ о появі противника на місці встановлення міни</t>
+  </si>
+  <si>
+    <t>руйнування елементів конструкцій з металу, залізобетону та дерева</t>
+  </si>
+  <si>
+    <t>singlechoice</t>
   </si>
 </sst>
 </file>
@@ -436,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -448,6 +313,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -669,7 +537,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -690,111 +558,111 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="225" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -807,8 +675,8 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="4" t="s">
-        <v>43</v>
+      <c r="AA2" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -816,52 +684,52 @@
     </row>
     <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -873,63 +741,63 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="2">
         <v>2</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -941,63 +809,63 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="2">
         <v>2</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1009,33 +877,33 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="2">
         <v>2</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1048,8 +916,8 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="4" t="s">
-        <v>43</v>
+      <c r="AA6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -1057,37 +925,37 @@
     </row>
     <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1098,18 +966,28 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1119,14 +997,10 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1136,44 +1010,28 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="4" t="s">
-        <v>43</v>
+      <c r="AA8" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1185,32 +1043,15 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1222,32 +1063,15 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="150" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1259,32 +1083,15 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1296,32 +1103,15 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="75" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1333,32 +1123,15 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1370,20 +1143,11 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="3">
-        <v>154</v>
-      </c>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1395,20 +1159,11 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="150" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1420,20 +1175,11 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="150" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1445,32 +1191,15 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1482,20 +1211,11 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="3">
-        <v>240</v>
-      </c>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1507,20 +1227,11 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="3">
-        <v>229.43</v>
-      </c>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1532,73 +1243,27 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078F0E6-866E-44CF-A157-9E02E1D7E7EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCD6A0-8E8D-4A1E-B047-B54285AF007C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -245,6 +245,54 @@
   </si>
   <si>
     <t>singlechoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Які способи підриву зарядів ВР існують? </t>
+  </si>
+  <si>
+    <t>вогневий</t>
+  </si>
+  <si>
+    <t>електричний</t>
+  </si>
+  <si>
+    <t>механічний</t>
+  </si>
+  <si>
+    <t>хімічний</t>
+  </si>
+  <si>
+    <t>біологічний</t>
+  </si>
+  <si>
+    <t>динамічний</t>
+  </si>
+  <si>
+    <t>фізичний</t>
+  </si>
+  <si>
+    <r>
+      <t>Вогневий спосіб</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> застосовується для</t>
+    </r>
+  </si>
+  <si>
+    <t>підриву поодиноких зарядів ВР або для різного за часом підриву серій зарядів, коли вибух одного з них не може пошкодити інший заряд або іншої серії</t>
+  </si>
+  <si>
+    <t>здійснення одночасного вибуху декількох зарядів, а також для бескапсюльного підриву зарядів вибухових речовин</t>
+  </si>
+  <si>
+    <t>одночасного вибуху декількох зарядів або для виконання вибуху в точно встановлений час</t>
   </si>
 </sst>
 </file>
@@ -536,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1017,24 +1065,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="O9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1043,15 +1115,30 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="AA9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="150" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1063,7 +1150,12 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCD6A0-8E8D-4A1E-B047-B54285AF007C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82F323-990B-4070-A5FF-0BBA9FDFF59B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82F323-990B-4070-A5FF-0BBA9FDFF59B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE5B02A-2E68-4A5B-886A-3A1B65503438}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
   <si>
     <t>Question</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Вибухові речовини це…</t>
-  </si>
-  <si>
-    <t>хімічні з’єднання або суміші, які під впливом визначених зовнішніх впливів здатні до швидкого само розповсюдженого хімічного перетворення із утворенням сильно нагрітих газів, що володіють великим тиском, які, розширюючись, виконують механічну роботу</t>
   </si>
   <si>
     <t>речовини, які вибухають від тертя або нагрівання</t>
@@ -286,13 +283,498 @@
     </r>
   </si>
   <si>
-    <t>підриву поодиноких зарядів ВР або для різного за часом підриву серій зарядів, коли вибух одного з них не може пошкодити інший заряд або іншої серії</t>
-  </si>
-  <si>
     <t>здійснення одночасного вибуху декількох зарядів, а також для бескапсюльного підриву зарядів вибухових речовин</t>
   </si>
   <si>
-    <t>одночасного вибуху декількох зарядів або для виконання вибуху в точно встановлений час</t>
+    <t>хімічні речовини, здатні під впливом зовнішніх дій до швидкого хімічного перетворення, що відбувається з виділенням великої кількості тепла і газоподібних продуктів</t>
+  </si>
+  <si>
+    <t>До яких зарядів відноситься це визначення? 
+"Заряди, форма яких наближається до куба чи паралелепіпеда, довжина якого не перевищує його найменший поперечний вимір більше ніж у п’ять разів"</t>
+  </si>
+  <si>
+    <t>зосереджені заряди</t>
+  </si>
+  <si>
+    <t>кумулятивні заряди</t>
+  </si>
+  <si>
+    <t>подовжені заряди</t>
+  </si>
+  <si>
+    <t>фігурні заряди</t>
+  </si>
+  <si>
+    <t>До яких зарядів відноситься це визначення? 
+"Заряди, що мають різноманітну форму і
+використовуються для підривання різних фігурних елементів конструкцій"</t>
+  </si>
+  <si>
+    <t>До яких зарядів відноситься це визначення? 
+"Заряди, які мають форму витягнутих паралелепіпедів
+чи циліндрів, довжина яких більше ніж у п’ять разів перевищує їх найменші
+поперечні розміри, при цьому висота зарядів, що мають форму
+паралелепіпедів, не повинна перевищувати їх ширину"</t>
+  </si>
+  <si>
+    <t>За формою заряди бувають</t>
+  </si>
+  <si>
+    <t>великокаліберні заряди</t>
+  </si>
+  <si>
+    <t>індукційні заряди</t>
+  </si>
+  <si>
+    <t>підривання поодиноких зарядів ВР і для різночасового підривання серій зарядів, коли підривання одного з них не може пошкодити інший заряд чи іншу серію</t>
+  </si>
+  <si>
+    <t>Які засоби підривання використовуються при вогневому способі</t>
+  </si>
+  <si>
+    <t>вогнепровідний шнур</t>
+  </si>
+  <si>
+    <t>детонуючий шнур</t>
+  </si>
+  <si>
+    <t>капсулі-детонатори</t>
+  </si>
+  <si>
+    <t>запалювальні трубки</t>
+  </si>
+  <si>
+    <t>електродетонатори</t>
+  </si>
+  <si>
+    <t>Яка довжина бухти вогнепровідного шнура</t>
+  </si>
+  <si>
+    <t>5 метрів</t>
+  </si>
+  <si>
+    <t>20 метрів</t>
+  </si>
+  <si>
+    <t>15 метрів</t>
+  </si>
+  <si>
+    <t>25 метрів</t>
+  </si>
+  <si>
+    <t>50 метрів</t>
+  </si>
+  <si>
+    <t>10 метрів</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вогнепровідний шнур складається з</t>
+  </si>
+  <si>
+    <t>порохової серцевини з
+однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і
+оболонки</t>
+  </si>
+  <si>
+    <t>Швидкість горіння вогнепровідного шнура на відкритому повітрі становить приблизно</t>
+  </si>
+  <si>
+    <t>1 см/с</t>
+  </si>
+  <si>
+    <t>10 см/с</t>
+  </si>
+  <si>
+    <t>1 м/с</t>
+  </si>
+  <si>
+    <t>10 м/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горіння вогнепровідного шнура під водою протікає </t>
+  </si>
+  <si>
+    <t>швидше</t>
+  </si>
+  <si>
+    <t>повільніше</t>
+  </si>
+  <si>
+    <t>Перед використанням ВШ оглядають, і якщо на поверхні його оболонки є тріщини, переломи, сліди відмокання, розкувйовдження та інші пошкодження й несправності, то такий шнур вважається непридатним для роботи; кінці шнура в бухті довжиною по ___–___ см відрізають та спалюють. Швидкість горіння ВШ перевіряють підпалюванням його відрізка довжиною ___ см, визначаючи час горіння за секундоміром чи за годинником із секундною стрілкою. Час горіння відрізка вказаної довжини повинен становити ___–___ секунд.</t>
+  </si>
+  <si>
+    <t>fillblank</t>
+  </si>
+  <si>
+    <t>Виготовлення ЗТП відбувається в такому порядку:</t>
+  </si>
+  <si>
+    <t>чистим гострим ножем на дерев’яній підкладці відрізають під прямим кутом шматок ВШ необхідної довжини</t>
+  </si>
+  <si>
+    <t>виймають із коробки КД і перевіряють його придатність шляхом огляду</t>
+  </si>
+  <si>
+    <t>закріплюють КД на ВШ спеціальним обтискачем, для чого беруть шнур у
+ліву руку і, притримуючи КД вказівним пальцем, накладають правою рукою обтискач так, щоб його нижня поверхня була на рівні зрізу гільзи; поступово посилюючи натискання на обтискач і повертаючи його, створюють біля краю гільзи кільцеву шийку, таким чином досягається міцність з’єднання КД зі шнуром</t>
+  </si>
+  <si>
+    <t>обрізаний під прямим кутом кінець ВШ обережно вводять у гільзу КД до
+упору в чашечку. Шнур повинен входити в гільзу легко, без натискання і обертання, які можуть призвести до підривання КД. Якщо шнур входить у гільзу досить вільно, його кінець обгортають одним шаром ізоляційної стрічки чи паперу</t>
+  </si>
+  <si>
+    <t>ordering</t>
+  </si>
+  <si>
+    <t>Характеристики ЗТП-50</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>Час сповільнення вибуху у повітрі, с</t>
+  </si>
+  <si>
+    <t>Час сповільнення вибуху у воді на глибині 5 м, с</t>
+  </si>
+  <si>
+    <t>Довжина, см</t>
+  </si>
+  <si>
+    <t>Маса, г</t>
+  </si>
+  <si>
+    <t>Колір ВШ</t>
+  </si>
+  <si>
+    <t>сірувато-білий</t>
+  </si>
+  <si>
+    <t>Характеристики ЗТП-150</t>
+  </si>
+  <si>
+    <t>Характеристики ЗТП-300</t>
+  </si>
+  <si>
+    <t>блакитний</t>
+  </si>
+  <si>
+    <t>Під час використання ЗТП з механічним запалювачем необхідно:</t>
+  </si>
+  <si>
+    <t>переконатися, що чека знаходиться в глибокому прорізі</t>
+  </si>
+  <si>
+    <t>накрутити запалювач на ніпель запалювального вузла ЗТП</t>
+  </si>
+  <si>
+    <t>вкрутити КД у запалювальне гніздо заряду</t>
+  </si>
+  <si>
+    <t>трохи підняти і поворотом на 90º переставити чеку з глибокого прорізу в
+мілкий</t>
+  </si>
+  <si>
+    <t>тримаючи запалювач лівою рукою за корпус, правою рукою висмикнути
+чеку за кільце (шток запалювача направити при цьому від себе)</t>
+  </si>
+  <si>
+    <t>Детонуючий шнур складається з</t>
+  </si>
+  <si>
+    <t>серцевини бризантної ВР (тену) з двома направляючими нитками і ряду внутрішніх і зовнішніх обплетень, покритих вологоізолюючою оболонкою</t>
+  </si>
+  <si>
+    <t>Діаметр ДШ дорівнює ___–___ мм. ДШ підривається зі швидкістю не менше ___ метрів за секунду. Його
+слід оберігати від механічних пошкоджень, а також від дії вологи і вогню; від вогню ДШ може загоратися і повільно горіти; у разі прострілювання кулею він
+може детонувати. ДШ відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. Під водою ДШ марки ДШ-В можна підривати за умови перебування його
+там не більше ___ годин</t>
+  </si>
+  <si>
+    <t>4-5 витків</t>
+  </si>
+  <si>
+    <t>Скількома витками детонуючого шнура необхідно обмотати шашку пресованого
+тротилу щоб можна було підірвати її без КД?</t>
+  </si>
+  <si>
+    <t>2-3 витка</t>
+  </si>
+  <si>
+    <t>3-4 витка</t>
+  </si>
+  <si>
+    <t>Picture 31</t>
+  </si>
+  <si>
+    <t>послідовний</t>
+  </si>
+  <si>
+    <t>вистачить одного витка</t>
+  </si>
+  <si>
+    <t>послідовна</t>
+  </si>
+  <si>
+    <t>паралельна</t>
+  </si>
+  <si>
+    <t>пучкова</t>
+  </si>
+  <si>
+    <t>змішана</t>
+  </si>
+  <si>
+    <t>Picture 32</t>
+  </si>
+  <si>
+    <t>Picture 33</t>
+  </si>
+  <si>
+    <t>одночасного підривання кількох зарядів чи для проведення підривання в точно встановлений час</t>
+  </si>
+  <si>
+    <t>Електричний спосіб підривання використовується для</t>
+  </si>
+  <si>
+    <t>проводи</t>
+  </si>
+  <si>
+    <t>джерела струму</t>
+  </si>
+  <si>
+    <t>перевірочні та вимірювальні прилади</t>
+  </si>
+  <si>
+    <t>Які засоби підривання використовуються при електричному способі</t>
+  </si>
+  <si>
+    <t>Характеристики ЕДП (ЭДП-р)</t>
+  </si>
+  <si>
+    <t>опір у холодному стані</t>
+  </si>
+  <si>
+    <t>від 0,9 до 1,5 Ом</t>
+  </si>
+  <si>
+    <t>розрахунковий опір у нагрітому стані (під час підривання) разом з
+відвідними проводами довжиною 1 м</t>
+  </si>
+  <si>
+    <t>2,5 Ом</t>
+  </si>
+  <si>
+    <t>мінімальний запалювальний струм</t>
+  </si>
+  <si>
+    <t>0,4 А</t>
+  </si>
+  <si>
+    <t>мінімальний розрахунковий струм для підривання одиничного ЕДП при постійному струмі</t>
+  </si>
+  <si>
+    <t>0,5 А</t>
+  </si>
+  <si>
+    <t>мінімальний розрахунковий струм для підривання одиничного ЕДП при змінному струмі</t>
+  </si>
+  <si>
+    <t>1 А</t>
+  </si>
+  <si>
+    <t>безпечний струм</t>
+  </si>
+  <si>
+    <t>0,18 А</t>
+  </si>
+  <si>
+    <t>Яка схема електро-вибухової мережі зображена на малюнку?</t>
+  </si>
+  <si>
+    <t>Який вид мережі ДШ зображена на малюнку?</t>
+  </si>
+  <si>
+    <t>з послідовним з’єднанням ЕДП</t>
+  </si>
+  <si>
+    <t>з послідовним з’єднанням груп, що складаються з попарнопаралельно з’єднаних ЕДП</t>
+  </si>
+  <si>
+    <t>з паралельно-пучковим з’єднанням ЕДП</t>
+  </si>
+  <si>
+    <t>зі змішаним з’єднанням ЕДП</t>
+  </si>
+  <si>
+    <t>Picture 34</t>
+  </si>
+  <si>
+    <t>Picture 35</t>
+  </si>
+  <si>
+    <t>Picture 36</t>
+  </si>
+  <si>
+    <t>U = I * R</t>
+  </si>
+  <si>
+    <t>I = U * R</t>
+  </si>
+  <si>
+    <t>R = U * I</t>
+  </si>
+  <si>
+    <t>I = R / U</t>
+  </si>
+  <si>
+    <t>Picture 37</t>
+  </si>
+  <si>
+    <t>Який вираз має закон Ома?</t>
+  </si>
+  <si>
+    <t>щоб запобігти розриванню зрощень</t>
+  </si>
+  <si>
+    <t>Запобіжна петля на ділянці зрощення саперного проводу використовується для</t>
+  </si>
+  <si>
+    <t>збільшення опору мережі</t>
+  </si>
+  <si>
+    <t>запобіганню розривання зрощень</t>
+  </si>
+  <si>
+    <t>зменшення опору мережі</t>
+  </si>
+  <si>
+    <t>маркування кінців мережі</t>
+  </si>
+  <si>
+    <t>Яка безпечна відстань для відкритого розміщення людей під час підривання зарядів до 10 кг без оболонок на ґрунті?</t>
+  </si>
+  <si>
+    <t>100 метрів</t>
+  </si>
+  <si>
+    <t>350 метрів</t>
+  </si>
+  <si>
+    <t>500 метрів</t>
+  </si>
+  <si>
+    <t>Яка безпечна відстань для відкритого розміщення людей під час підривання під час підривання відкрито розміщених металевих конструкцій зарядами до 10 кг без оболонок?</t>
+  </si>
+  <si>
+    <t>Яка безпечна відстань для відкритого розміщення людей під час підривання  цегли, каменю, бетону і залізобетону зарядами до 10 кг без оболонок?</t>
+  </si>
+  <si>
+    <t>Не ближче якої відстані дозволяється палити, розводити вогонь і запалювати багаття від місця виконання робіт з вибуховими речовинами та засобами підриву?</t>
+  </si>
+  <si>
+    <t>15 хвилин</t>
+  </si>
+  <si>
+    <t>5 хвилин</t>
+  </si>
+  <si>
+    <t>10 хвилин</t>
+  </si>
+  <si>
+    <t>30 хвилин</t>
+  </si>
+  <si>
+    <t>Не раніше ніж через який час із того моменту, коли за підрахунками повинен був відбутися вибух, можна підходити до зарядів, що відмовили при вогневому способі підривання?</t>
+  </si>
+  <si>
+    <t>порохової серцевини всередені та направляючого стрижня з бризантної ВР навколо неї</t>
+  </si>
+  <si>
+    <t>серцевини бризантної ВР та пороху покритих вологоізолюючою оболонкою</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики протипіхотної міни МОН-50</t>
+  </si>
+  <si>
+    <t>Маса</t>
+  </si>
+  <si>
+    <t>2 кг</t>
+  </si>
+  <si>
+    <t>Маса заряду</t>
+  </si>
+  <si>
+    <t>0,7 кг</t>
+  </si>
+  <si>
+    <t>Тип заряду</t>
+  </si>
+  <si>
+    <t>ПВВ-5А</t>
+  </si>
+  <si>
+    <t>Горизонтальний кут розкидання осколків</t>
+  </si>
+  <si>
+    <t>54°</t>
+  </si>
+  <si>
+    <t>Радіус суцільного ураження</t>
+  </si>
+  <si>
+    <t>50 / 58 м</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження на відстані 50 / 58 м</t>
+  </si>
+  <si>
+    <t>45 / 54 м</t>
+  </si>
+  <si>
+    <t>Дальність ураження легкового та вантажного автотранспорту та живої сили в ньому</t>
+  </si>
+  <si>
+    <t>до 30 м</t>
+  </si>
+  <si>
+    <t>Дальність розльоту осколків від корпусу у тиловому та бічному напрямах</t>
+  </si>
+  <si>
+    <t>до 40 м</t>
+  </si>
+  <si>
+    <t>Дальність польоту забійних осколків</t>
+  </si>
+  <si>
+    <t>80 / 85 м</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-50 в грунт</t>
+  </si>
+  <si>
+    <t>послабити пробку одного запального гнізда</t>
+  </si>
+  <si>
+    <t>повернути міну опуклою стороною (стрілкою на прицілі) в напрямку цілі</t>
+  </si>
+  <si>
+    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міні
+стійке положення</t>
+  </si>
+  <si>
+    <t>користуючись прицільною щілиною, навести міну на ціль (віху або місцевий предмет, який перебуває на місці очікуваної цілі), при наведенні відстань від ока навідника до щілини повинно бути 140-150 мм, лінія прицілювання повинна йти від ока навідника через середину жолоба на рівні нижньої площини щілини на центр цілі, для надання міні необхідного положення вона повертається на шарнірах і ніжках вдавлюється в ґрунт на необхідну глибину</t>
+  </si>
+  <si>
+    <t>вкрутити в запальний гніздо електродетонатор, приєднаний до дротової мережі управління, перевірити правильність прицілювання</t>
+  </si>
+  <si>
+    <t>замаскувати міну місцевим матеріалом (травою, гілками)</t>
+  </si>
+  <si>
+    <t>Для прицілювання міни МОН-50, якщо дозволяє час, використовується віха, що виготовляється у військах,
+яка встановлюється на напрямку руху, центру очікуваної групової цілі. Висота віхи від поверхні землі до поперечної планки при відстані ___ м – ___ м, при відстані ___ м – ___ м</t>
   </si>
 </sst>
 </file>
@@ -349,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -363,6 +845,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,16 +1067,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="2"/>
-    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
@@ -690,27 +1175,27 @@
         <v>8</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="225" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -724,7 +1209,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -732,52 +1217,52 @@
     </row>
     <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -795,57 +1280,57 @@
         <v>2</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -863,57 +1348,57 @@
         <v>2</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="O5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -931,27 +1416,27 @@
         <v>2</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -965,7 +1450,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -973,37 +1458,37 @@
     </row>
     <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1020,32 +1505,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1059,54 +1536,37 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AC8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1115,29 +1575,34 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="4" t="s">
-        <v>9</v>
+      <c r="AA9" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="AB9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="150" x14ac:dyDescent="0.3">
+      <c r="AC9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>80</v>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1151,22 +1616,49 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="AC10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1175,15 +1667,40 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="AA11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1195,18 +1712,55 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -1215,15 +1769,30 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="AA13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1235,14 +1804,53 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="AA14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -1251,11 +1859,32 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="AA15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1267,11 +1896,38 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="AA16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1283,15 +1939,32 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="AA17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1303,11 +1976,28 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="AA18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1319,15 +2009,32 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="AA19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="3">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>60</v>
+      </c>
+      <c r="R20" s="3">
+        <v>60</v>
+      </c>
+      <c r="S20" s="3">
+        <v>70</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -1335,35 +2042,994 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="AA20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="3">
+        <v>50</v>
+      </c>
+      <c r="P22" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>55</v>
+      </c>
+      <c r="R22">
+        <v>50</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O23" s="3">
+        <v>150</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>150</v>
+      </c>
+      <c r="R23">
+        <v>75</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O24" s="3">
+        <v>360</v>
+      </c>
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>65</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="150" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="AA26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+      <c r="P27" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6500</v>
+      </c>
+      <c r="R27" s="2">
+        <v>50</v>
+      </c>
+      <c r="S27" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O47" s="2">
+        <v>10</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>30</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE5B02A-2E68-4A5B-886A-3A1B65503438}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772B471-D0BA-4DD4-A429-E760172FA9A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
   <si>
     <t>Question</t>
   </si>
@@ -634,16 +634,10 @@
     <t>Який вираз має закон Ома?</t>
   </si>
   <si>
-    <t>щоб запобігти розриванню зрощень</t>
-  </si>
-  <si>
     <t>Запобіжна петля на ділянці зрощення саперного проводу використовується для</t>
   </si>
   <si>
     <t>збільшення опору мережі</t>
-  </si>
-  <si>
-    <t>запобіганню розривання зрощень</t>
   </si>
   <si>
     <t>зменшення опору мережі</t>
@@ -775,6 +769,9 @@
   <si>
     <t>Для прицілювання міни МОН-50, якщо дозволяє час, використовується віха, що виготовляється у військах,
 яка встановлюється на напрямку руху, центру очікуваної групової цілі. Висота віхи від поверхні землі до поперечної планки при відстані ___ м – ___ м, при відстані ___ м – ___ м</t>
+  </si>
+  <si>
+    <t>запобігання розривання зрощень</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1868,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>141</v>
@@ -1880,7 +1877,7 @@
         <v>106</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>106</v>
@@ -2298,10 +2295,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>141</v>
@@ -2733,22 +2730,22 @@
         <v>188</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>69</v>
@@ -2759,19 +2756,19 @@
     </row>
     <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>103</v>
@@ -2788,22 +2785,22 @@
     </row>
     <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>69</v>
@@ -2817,22 +2814,22 @@
     </row>
     <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="O42" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA42" s="5" t="s">
         <v>69</v>
@@ -2846,22 +2843,22 @@
     </row>
     <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA43" s="5" t="s">
         <v>69</v>
@@ -2872,22 +2869,22 @@
     </row>
     <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="O44" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>69</v>
@@ -2898,61 +2895,61 @@
     </row>
     <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="AA45" s="5" t="s">
         <v>124</v>
@@ -2963,43 +2960,43 @@
     </row>
     <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="O46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="R46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="AA46" s="5" t="s">
         <v>122</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772B471-D0BA-4DD4-A429-E760172FA9A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64144317-7698-4EA5-B621-920C5DCD893C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64144317-7698-4EA5-B621-920C5DCD893C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E42B39-C9C0-4D70-91D7-1E55E1F4540C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="238">
   <si>
     <t>Question</t>
   </si>
@@ -133,21 +133,6 @@
     <t>До ініціюючих вибухових речовин відносяться:</t>
   </si>
   <si>
-    <r>
-      <t>До бризантних вибухових речовин підвищеної потужності відносяться:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>гексоген</t>
   </si>
   <si>
@@ -266,21 +251,6 @@
   </si>
   <si>
     <t>фізичний</t>
-  </si>
-  <si>
-    <r>
-      <t>Вогневий спосіб</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> застосовується для</t>
-    </r>
   </si>
   <si>
     <t>здійснення одночасного вибуху декількох зарядів, а також для бескапсюльного підриву зарядів вибухових речовин</t>
@@ -415,14 +385,6 @@
     <t>виймають із коробки КД і перевіряють його придатність шляхом огляду</t>
   </si>
   <si>
-    <t>закріплюють КД на ВШ спеціальним обтискачем, для чого беруть шнур у
-ліву руку і, притримуючи КД вказівним пальцем, накладають правою рукою обтискач так, щоб його нижня поверхня була на рівні зрізу гільзи; поступово посилюючи натискання на обтискач і повертаючи його, створюють біля краю гільзи кільцеву шийку, таким чином досягається міцність з’єднання КД зі шнуром</t>
-  </si>
-  <si>
-    <t>обрізаний під прямим кутом кінець ВШ обережно вводять у гільзу КД до
-упору в чашечку. Шнур повинен входити в гільзу легко, без натискання і обертання, які можуть призвести до підривання КД. Якщо шнур входить у гільзу досить вільно, його кінець обгортають одним шаром ізоляційної стрічки чи паперу</t>
-  </si>
-  <si>
     <t>ordering</t>
   </si>
   <si>
@@ -473,10 +435,6 @@
   <si>
     <t>трохи підняти і поворотом на 90º переставити чеку з глибокого прорізу в
 мілкий</t>
-  </si>
-  <si>
-    <t>тримаючи запалювач лівою рукою за корпус, правою рукою висмикнути
-чеку за кільце (шток запалювача направити при цьому від себе)</t>
   </si>
   <si>
     <t>Детонуючий шнур складається з</t>
@@ -558,10 +516,6 @@
     <t>від 0,9 до 1,5 Ом</t>
   </si>
   <si>
-    <t>розрахунковий опір у нагрітому стані (під час підривання) разом з
-відвідними проводами довжиною 1 м</t>
-  </si>
-  <si>
     <t>2,5 Ом</t>
   </si>
   <si>
@@ -772,6 +726,30 @@
   </si>
   <si>
     <t>запобігання розривання зрощень</t>
+  </si>
+  <si>
+    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міністійке положення</t>
+  </si>
+  <si>
+    <t>порохової серцевини з однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і оболонки</t>
+  </si>
+  <si>
+    <t>обрізаний під прямим кутом кінець ВШ обережно вводять у гільзу КД до упору в чашечку. Шнур повинен входити в гільзу легко, без натискання і обертання, які можуть призвести до підривання КД. Якщо шнур входить у гільзу досить вільно, його кінець обгортають одним шаром ізоляційної стрічки чи паперу</t>
+  </si>
+  <si>
+    <t>закріплюють КД на ВШ спеціальним обтискачем, для чого беруть шнур у ліву руку і, притримуючи КД вказівним пальцем, накладають правою рукою обтискач так, щоб його нижня поверхня була на рівні зрізу гільзи; поступово посилюючи натискання на обтискач і повертаючи його, створюють біля краю гільзи кільцеву шийку, таким чином досягається міцність з’єднання КД зі шнуром</t>
+  </si>
+  <si>
+    <t>тримаючи запалювач лівою рукою за корпус, правою рукою висмикнути чеку за кільце (шток запалювача направити при цьому від себе)</t>
+  </si>
+  <si>
+    <t>розрахунковий опір у нагрітому стані (під час підривання) разом з відвідними проводами довжиною 1 м</t>
+  </si>
+  <si>
+    <t>Вогневий спосіб застосовується для …</t>
+  </si>
+  <si>
+    <t>До бризантних вибухових речовин підвищеної потужності відносяться:</t>
   </si>
 </sst>
 </file>
@@ -828,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -844,6 +822,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1048,7 @@
   <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
@@ -1186,13 +1167,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1206,7 +1187,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -1217,37 +1198,37 @@
         <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>35</v>
@@ -1277,57 +1258,57 @@
         <v>2</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1345,57 +1326,57 @@
         <v>2</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1413,27 +1394,27 @@
         <v>2</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1447,7 +1428,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -1455,37 +1436,37 @@
     </row>
     <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1504,22 +1485,22 @@
     </row>
     <row r="8" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1533,33 +1514,33 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1573,33 +1554,33 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB9" s="2">
         <v>2</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1613,48 +1594,48 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1673,19 +1654,19 @@
     </row>
     <row r="12" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1696,7 +1677,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1710,7 +1691,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
@@ -1718,28 +1699,28 @@
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1747,16 +1728,16 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1774,21 +1755,21 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>78</v>
+      <c r="B14" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1802,7 +1783,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
@@ -1810,43 +1791,43 @@
     </row>
     <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1865,22 +1846,22 @@
     </row>
     <row r="16" spans="1:29" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1894,7 +1875,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB16" s="2">
         <v>2</v>
@@ -1902,28 +1883,28 @@
     </row>
     <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1937,7 +1918,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB17" s="2">
         <v>2</v>
@@ -1945,22 +1926,22 @@
     </row>
     <row r="18" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1974,7 +1955,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB18" s="2">
         <v>2</v>
@@ -1982,18 +1963,18 @@
     </row>
     <row r="19" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2007,7 +1988,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB19" s="2">
         <v>2</v>
@@ -2015,7 +1996,7 @@
     </row>
     <row r="20" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" s="3">
         <v>10</v>
@@ -2040,7 +2021,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB20" s="5">
         <v>2</v>
@@ -2048,31 +2029,31 @@
     </row>
     <row r="21" spans="1:29" ht="318.75" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="O21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2083,7 +2064,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB21" s="5">
         <v>2</v>
@@ -2091,22 +2072,22 @@
     </row>
     <row r="22" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="O22" s="3">
         <v>50</v>
@@ -2121,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2131,33 +2112,33 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB22" s="5">
         <v>2</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="O23" s="3">
         <v>150</v>
@@ -2172,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2182,33 +2163,33 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB23" s="5">
         <v>2</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="O24" s="3">
         <v>360</v>
@@ -2223,7 +2204,7 @@
         <v>65</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2233,48 +2214,48 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB24" s="5">
         <v>2</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="O25" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2284,7 +2265,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB25" s="5">
         <v>2</v>
@@ -2292,26 +2273,26 @@
     </row>
     <row r="26" spans="1:29" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2321,7 +2302,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="AA26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB26" s="2">
         <v>2</v>
@@ -2329,7 +2310,7 @@
     </row>
     <row r="27" spans="1:29" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2355,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB27" s="5">
         <v>2</v>
@@ -2363,25 +2344,25 @@
     </row>
     <row r="28" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB28" s="2">
         <v>2</v>
@@ -2389,118 +2370,118 @@
     </row>
     <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB29" s="2">
         <v>2</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB30" s="2">
         <v>2</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB31" s="2">
         <v>2</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB32" s="2">
         <v>2</v>
@@ -2508,46 +2489,46 @@
     </row>
     <row r="33" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="P33" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>9</v>
@@ -2558,46 +2539,46 @@
     </row>
     <row r="34" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="AA34" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB34" s="5">
         <v>2</v>
@@ -2605,121 +2586,121 @@
     </row>
     <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB35" s="2">
         <v>2</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB36" s="2">
         <v>2</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB37" s="2">
         <v>2</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB38" s="2">
         <v>2</v>
@@ -2727,28 +2708,28 @@
     </row>
     <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB39" s="2">
         <v>2</v>
@@ -2756,112 +2737,112 @@
     </row>
     <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB40" s="2">
         <v>2</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB41" s="2">
         <v>2</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB42" s="2">
         <v>2</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="2">
         <v>2</v>
@@ -2869,25 +2850,25 @@
     </row>
     <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="2">
         <v>2</v>
@@ -2895,64 +2876,64 @@
     </row>
     <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U45" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="AA45" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB45" s="5">
         <v>2</v>
@@ -2960,46 +2941,46 @@
     </row>
     <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB46" s="5">
         <v>2</v>
@@ -3007,7 +2988,7 @@
     </row>
     <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>
@@ -3022,7 +3003,7 @@
         <v>1.6</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB47" s="5">
         <v>2</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E42B39-C9C0-4D70-91D7-1E55E1F4540C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC0568-6504-4B12-A122-05B031FB9659}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>боєприпаси великого калібру</t>
   </si>
   <si>
-    <t>повітряного підриву</t>
-  </si>
-  <si>
     <t>Variant</t>
   </si>
   <si>
@@ -750,6 +747,9 @@
   </si>
   <si>
     <t>До бризантних вибухових речовин підвищеної потужності відносяться:</t>
+  </si>
+  <si>
+    <t>імітаційні засоби</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
@@ -1167,13 +1167,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1187,7 +1187,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -1258,12 +1258,12 @@
         <v>2</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -1436,37 +1436,37 @@
     </row>
     <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1485,22 +1485,22 @@
     </row>
     <row r="8" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1514,33 +1514,33 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1554,33 +1554,33 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB9" s="2">
         <v>2</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1594,13 +1594,13 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1654,19 +1654,19 @@
     </row>
     <row r="12" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1677,7 +1677,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1691,7 +1691,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
@@ -1699,28 +1699,28 @@
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1728,16 +1728,16 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1756,20 +1756,20 @@
     </row>
     <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1783,7 +1783,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
@@ -1791,43 +1791,43 @@
     </row>
     <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="O15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1846,22 +1846,22 @@
     </row>
     <row r="16" spans="1:29" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1875,7 +1875,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="2">
         <v>2</v>
@@ -1883,28 +1883,28 @@
     </row>
     <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1918,7 +1918,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB17" s="2">
         <v>2</v>
@@ -1926,22 +1926,22 @@
     </row>
     <row r="18" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1955,7 +1955,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB18" s="2">
         <v>2</v>
@@ -1963,18 +1963,18 @@
     </row>
     <row r="19" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1988,7 +1988,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB19" s="2">
         <v>2</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="20" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O20" s="3">
         <v>10</v>
@@ -2021,7 +2021,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB20" s="5">
         <v>2</v>
@@ -2029,31 +2029,31 @@
     </row>
     <row r="21" spans="1:29" ht="318.75" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="O21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="Q21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2064,7 +2064,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB21" s="5">
         <v>2</v>
@@ -2072,22 +2072,22 @@
     </row>
     <row r="22" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="O22" s="3">
         <v>50</v>
@@ -2102,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2112,33 +2112,33 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB22" s="5">
         <v>2</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="O23" s="3">
         <v>150</v>
@@ -2153,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2163,33 +2163,33 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB23" s="5">
         <v>2</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="O24" s="3">
         <v>360</v>
@@ -2204,7 +2204,7 @@
         <v>65</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2214,48 +2214,48 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB24" s="5">
         <v>2</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="O25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="S25" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2265,7 +2265,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB25" s="5">
         <v>2</v>
@@ -2273,26 +2273,26 @@
     </row>
     <row r="26" spans="1:29" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2302,7 +2302,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="AA26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB26" s="2">
         <v>2</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="27" spans="1:29" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2336,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB27" s="5">
         <v>2</v>
@@ -2344,25 +2344,25 @@
     </row>
     <row r="28" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB28" s="2">
         <v>2</v>
@@ -2370,118 +2370,118 @@
     </row>
     <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="AA29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB29" s="2">
         <v>2</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="O30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB30" s="2">
         <v>2</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="O31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB31" s="2">
         <v>2</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB32" s="2">
         <v>2</v>
@@ -2489,46 +2489,46 @@
     </row>
     <row r="33" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="I33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="R33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>9</v>
@@ -2539,46 +2539,46 @@
     </row>
     <row r="34" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="P34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="AA34" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB34" s="5">
         <v>2</v>
@@ -2586,121 +2586,121 @@
     </row>
     <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB35" s="2">
         <v>2</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB36" s="2">
         <v>2</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB37" s="2">
         <v>2</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB38" s="2">
         <v>2</v>
@@ -2708,28 +2708,28 @@
     </row>
     <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB39" s="2">
         <v>2</v>
@@ -2737,112 +2737,112 @@
     </row>
     <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="O40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB40" s="2">
         <v>2</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB41" s="2">
         <v>2</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="O42" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="2">
         <v>2</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="2">
         <v>2</v>
@@ -2850,25 +2850,25 @@
     </row>
     <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="O44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB44" s="2">
         <v>2</v>
@@ -2876,64 +2876,64 @@
     </row>
     <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="AA45" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB45" s="5">
         <v>2</v>
@@ -2941,46 +2941,46 @@
     </row>
     <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="R46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="AA46" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB46" s="5">
         <v>2</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>
@@ -3003,7 +3003,7 @@
         <v>1.6</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB47" s="5">
         <v>2</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC0568-6504-4B12-A122-05B031FB9659}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA1B682-57F0-4D44-888C-10E8AD443E36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="239">
   <si>
     <t>Question</t>
   </si>
@@ -459,9 +459,6 @@
     <t>3-4 витка</t>
   </si>
   <si>
-    <t>Picture 31</t>
-  </si>
-  <si>
     <t>послідовний</t>
   </si>
   <si>
@@ -480,12 +477,6 @@
     <t>змішана</t>
   </si>
   <si>
-    <t>Picture 32</t>
-  </si>
-  <si>
-    <t>Picture 33</t>
-  </si>
-  <si>
     <t>одночасного підривання кількох зарядів чи для проведення підривання в точно встановлений час</t>
   </si>
   <si>
@@ -556,15 +547,6 @@
   </si>
   <si>
     <t>зі змішаним з’єднанням ЕДП</t>
-  </si>
-  <si>
-    <t>Picture 34</t>
-  </si>
-  <si>
-    <t>Picture 35</t>
-  </si>
-  <si>
-    <t>Picture 36</t>
   </si>
   <si>
     <t>U = I * R</t>
@@ -750,6 +732,27 @@
   </si>
   <si>
     <t>імітаційні засоби</t>
+  </si>
+  <si>
+    <t>Picture31</t>
+  </si>
+  <si>
+    <t>Picture32</t>
+  </si>
+  <si>
+    <t>Picture33</t>
+  </si>
+  <si>
+    <t>Picture34</t>
+  </si>
+  <si>
+    <t>Picture35</t>
+  </si>
+  <si>
+    <t>Picture36</t>
+  </si>
+  <si>
+    <t>Picture37</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1620,7 +1623,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -1765,7 +1768,7 @@
         <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="3"/>
       <c r="O14" s="3" t="s">
@@ -1800,19 +1803,19 @@
         <v>94</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>93</v>
@@ -1849,16 +1852,16 @@
         <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>103</v>
@@ -2032,13 +2035,13 @@
         <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>116</v>
@@ -2050,10 +2053,10 @@
         <v>116</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2237,7 +2240,7 @@
         <v>130</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>133</v>
@@ -2255,7 +2258,7 @@
         <v>133</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2276,10 +2279,10 @@
         <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>135</v>
@@ -2347,7 +2350,7 @@
         <v>138</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>139</v>
@@ -2370,25 +2373,25 @@
     </row>
     <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>67</v>
@@ -2402,25 +2405,25 @@
     </row>
     <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O30" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>67</v>
@@ -2434,25 +2437,25 @@
     </row>
     <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>67</v>
@@ -2466,7 +2469,7 @@
     </row>
     <row r="32" spans="1:29" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
@@ -2475,10 +2478,10 @@
         <v>88</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>67</v>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="33" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>90</v>
@@ -2498,19 +2501,19 @@
         <v>94</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>93</v>
@@ -2519,16 +2522,16 @@
         <v>94</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>9</v>
@@ -2539,43 +2542,43 @@
     </row>
     <row r="34" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>119</v>
@@ -2586,25 +2589,25 @@
     </row>
     <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>67</v>
@@ -2618,25 +2621,25 @@
     </row>
     <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>67</v>
@@ -2650,25 +2653,25 @@
     </row>
     <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>67</v>
@@ -2682,22 +2685,22 @@
     </row>
     <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>67</v>
@@ -2708,25 +2711,25 @@
     </row>
     <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>67</v>
@@ -2737,19 +2740,19 @@
     </row>
     <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>100</v>
@@ -2766,22 +2769,22 @@
     </row>
     <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>67</v>
@@ -2795,22 +2798,22 @@
     </row>
     <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AA42" s="5" t="s">
         <v>67</v>
@@ -2824,22 +2827,22 @@
     </row>
     <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AA43" s="5" t="s">
         <v>67</v>
@@ -2850,22 +2853,22 @@
     </row>
     <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>67</v>
@@ -2876,61 +2879,61 @@
     </row>
     <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="AA45" s="5" t="s">
         <v>119</v>
@@ -2941,43 +2944,43 @@
     </row>
     <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AA46" s="5" t="s">
         <v>117</v>
@@ -2988,7 +2991,7 @@
     </row>
     <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA1B682-57F0-4D44-888C-10E8AD443E36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B37B9-4277-47CE-B110-F4C1E5B71EDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="238">
   <si>
     <t>Question</t>
   </si>
@@ -561,9 +561,6 @@
     <t>I = R / U</t>
   </si>
   <si>
-    <t>Picture 37</t>
-  </si>
-  <si>
     <t>Який вираз має закон Ома?</t>
   </si>
   <si>
@@ -700,59 +697,59 @@
     <t>замаскувати міну місцевим матеріалом (травою, гілками)</t>
   </si>
   <si>
+    <t>запобігання розривання зрощень</t>
+  </si>
+  <si>
+    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міністійке положення</t>
+  </si>
+  <si>
+    <t>порохової серцевини з однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і оболонки</t>
+  </si>
+  <si>
+    <t>обрізаний під прямим кутом кінець ВШ обережно вводять у гільзу КД до упору в чашечку. Шнур повинен входити в гільзу легко, без натискання і обертання, які можуть призвести до підривання КД. Якщо шнур входить у гільзу досить вільно, його кінець обгортають одним шаром ізоляційної стрічки чи паперу</t>
+  </si>
+  <si>
+    <t>закріплюють КД на ВШ спеціальним обтискачем, для чого беруть шнур у ліву руку і, притримуючи КД вказівним пальцем, накладають правою рукою обтискач так, щоб його нижня поверхня була на рівні зрізу гільзи; поступово посилюючи натискання на обтискач і повертаючи його, створюють біля краю гільзи кільцеву шийку, таким чином досягається міцність з’єднання КД зі шнуром</t>
+  </si>
+  <si>
+    <t>тримаючи запалювач лівою рукою за корпус, правою рукою висмикнути чеку за кільце (шток запалювача направити при цьому від себе)</t>
+  </si>
+  <si>
+    <t>розрахунковий опір у нагрітому стані (під час підривання) разом з відвідними проводами довжиною 1 м</t>
+  </si>
+  <si>
+    <t>Вогневий спосіб застосовується для …</t>
+  </si>
+  <si>
+    <t>До бризантних вибухових речовин підвищеної потужності відносяться:</t>
+  </si>
+  <si>
+    <t>імітаційні засоби</t>
+  </si>
+  <si>
+    <t>Picture31</t>
+  </si>
+  <si>
+    <t>Picture32</t>
+  </si>
+  <si>
+    <t>Picture33</t>
+  </si>
+  <si>
+    <t>Picture34</t>
+  </si>
+  <si>
+    <t>Picture35</t>
+  </si>
+  <si>
+    <t>Picture36</t>
+  </si>
+  <si>
+    <t>Picture37</t>
+  </si>
+  <si>
     <t>Для прицілювання міни МОН-50, якщо дозволяє час, використовується віха, що виготовляється у військах,
-яка встановлюється на напрямку руху, центру очікуваної групової цілі. Висота віхи від поверхні землі до поперечної планки при відстані ___ м – ___ м, при відстані ___ м – ___ м</t>
-  </si>
-  <si>
-    <t>запобігання розривання зрощень</t>
-  </si>
-  <si>
-    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міністійке положення</t>
-  </si>
-  <si>
-    <t>порохової серцевини з однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і оболонки</t>
-  </si>
-  <si>
-    <t>обрізаний під прямим кутом кінець ВШ обережно вводять у гільзу КД до упору в чашечку. Шнур повинен входити в гільзу легко, без натискання і обертання, які можуть призвести до підривання КД. Якщо шнур входить у гільзу досить вільно, його кінець обгортають одним шаром ізоляційної стрічки чи паперу</t>
-  </si>
-  <si>
-    <t>закріплюють КД на ВШ спеціальним обтискачем, для чого беруть шнур у ліву руку і, притримуючи КД вказівним пальцем, накладають правою рукою обтискач так, щоб його нижня поверхня була на рівні зрізу гільзи; поступово посилюючи натискання на обтискач і повертаючи його, створюють біля краю гільзи кільцеву шийку, таким чином досягається міцність з’єднання КД зі шнуром</t>
-  </si>
-  <si>
-    <t>тримаючи запалювач лівою рукою за корпус, правою рукою висмикнути чеку за кільце (шток запалювача направити при цьому від себе)</t>
-  </si>
-  <si>
-    <t>розрахунковий опір у нагрітому стані (під час підривання) разом з відвідними проводами довжиною 1 м</t>
-  </si>
-  <si>
-    <t>Вогневий спосіб застосовується для …</t>
-  </si>
-  <si>
-    <t>До бризантних вибухових речовин підвищеної потужності відносяться:</t>
-  </si>
-  <si>
-    <t>імітаційні засоби</t>
-  </si>
-  <si>
-    <t>Picture31</t>
-  </si>
-  <si>
-    <t>Picture32</t>
-  </si>
-  <si>
-    <t>Picture33</t>
-  </si>
-  <si>
-    <t>Picture34</t>
-  </si>
-  <si>
-    <t>Picture35</t>
-  </si>
-  <si>
-    <t>Picture36</t>
-  </si>
-  <si>
-    <t>Picture37</t>
+яка встановлюється на напрямку руху, центру очікуваної групової цілі. Висота віхи від поверхні землі до поперечної планки при відстані ___ м дорівнює ___ м, при відстані ___ м – ___ м</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1263,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1623,7 +1620,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1759,7 +1756,7 @@
     </row>
     <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -1852,16 +1849,16 @@
         <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>103</v>
@@ -2035,13 +2032,13 @@
         <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>116</v>
@@ -2053,10 +2050,10 @@
         <v>116</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2240,7 +2237,7 @@
         <v>130</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>133</v>
@@ -2258,7 +2255,7 @@
         <v>133</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2279,10 +2276,10 @@
         <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>135</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>166</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>166</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>166</v>
@@ -2548,7 +2545,7 @@
         <v>154</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>157</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>165</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>165</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>165</v>
@@ -2685,7 +2682,7 @@
     </row>
     <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>171</v>
@@ -2711,25 +2708,25 @@
     </row>
     <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>67</v>
@@ -2740,19 +2737,19 @@
     </row>
     <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>100</v>
@@ -2769,22 +2766,22 @@
     </row>
     <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>67</v>
@@ -2798,22 +2795,22 @@
     </row>
     <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O42" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA42" s="5" t="s">
         <v>67</v>
@@ -2827,22 +2824,22 @@
     </row>
     <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA43" s="5" t="s">
         <v>67</v>
@@ -2853,22 +2850,22 @@
     </row>
     <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="O44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>67</v>
@@ -2879,61 +2876,61 @@
     </row>
     <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="AA45" s="5" t="s">
         <v>119</v>
@@ -2944,43 +2941,43 @@
     </row>
     <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="R46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="AA46" s="5" t="s">
         <v>117</v>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B37B9-4277-47CE-B110-F4C1E5B71EDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90041969-EA30-4D8A-9B51-B75DE315CBF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="318">
   <si>
     <t>Question</t>
   </si>
@@ -277,13 +277,6 @@
 використовуються для підривання різних фігурних елементів конструкцій"</t>
   </si>
   <si>
-    <t>До яких зарядів відноситься це визначення? 
-"Заряди, які мають форму витягнутих паралелепіпедів
-чи циліндрів, довжина яких більше ніж у п’ять разів перевищує їх найменші
-поперечні розміри, при цьому висота зарядів, що мають форму
-паралелепіпедів, не повинна перевищувати їх ширину"</t>
-  </si>
-  <si>
     <t>За формою заряди бувають</t>
   </si>
   <si>
@@ -314,9 +307,6 @@
     <t>електродетонатори</t>
   </si>
   <si>
-    <t>Яка довжина бухти вогнепровідного шнура</t>
-  </si>
-  <si>
     <t>5 метрів</t>
   </si>
   <si>
@@ -333,9 +323,6 @@
   </si>
   <si>
     <t>10 метрів</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вогнепровідний шнур складається з</t>
   </si>
   <si>
     <t>порохової серцевини з
@@ -343,9 +330,6 @@
 оболонки</t>
   </si>
   <si>
-    <t>Швидкість горіння вогнепровідного шнура на відкритому повітрі становить приблизно</t>
-  </si>
-  <si>
     <t>1 см/с</t>
   </si>
   <si>
@@ -440,17 +424,7 @@
     <t>серцевини бризантної ВР (тену) з двома направляючими нитками і ряду внутрішніх і зовнішніх обплетень, покритих вологоізолюючою оболонкою</t>
   </si>
   <si>
-    <t>Діаметр ДШ дорівнює ___–___ мм. ДШ підривається зі швидкістю не менше ___ метрів за секунду. Його
-слід оберігати від механічних пошкоджень, а також від дії вологи і вогню; від вогню ДШ може загоратися і повільно горіти; у разі прострілювання кулею він
-може детонувати. ДШ відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. Під водою ДШ марки ДШ-В можна підривати за умови перебування його
-там не більше ___ годин</t>
-  </si>
-  <si>
     <t>4-5 витків</t>
-  </si>
-  <si>
-    <t>Скількома витками детонуючого шнура необхідно обмотати шашку пресованого
-тротилу щоб можна було підірвати її без КД?</t>
   </si>
   <si>
     <t>2-3 витка</t>
@@ -750,6 +724,266 @@
   <si>
     <t>Для прицілювання міни МОН-50, якщо дозволяє час, використовується віха, що виготовляється у військах,
 яка встановлюється на напрямку руху, центру очікуваної групової цілі. Висота віхи від поверхні землі до поперечної планки при відстані ___ м дорівнює ___ м, при відстані ___ м – ___ м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При проведенні підривних робіт з ЕДП уповільненої дії до зарядів, що відмовили, дозволяється підходити не раніше ніж через </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необхідно розміщувати проводи ЕВМ від електричних станцій, підстанцій, високовольтних ліній, електрифікованих залізниць і потужних радіостанцій не ближче ніж  </t>
+  </si>
+  <si>
+    <t>200 метрів</t>
+  </si>
+  <si>
+    <t>300 метрів</t>
+  </si>
+  <si>
+    <t>протипіхотна</t>
+  </si>
+  <si>
+    <t>протитанкова</t>
+  </si>
+  <si>
+    <t>осколкова</t>
+  </si>
+  <si>
+    <t>фугасна</t>
+  </si>
+  <si>
+    <t>кумулятивна</t>
+  </si>
+  <si>
+    <t>направленої дії</t>
+  </si>
+  <si>
+    <t>кругової дії</t>
+  </si>
+  <si>
+    <t>об'єктна</t>
+  </si>
+  <si>
+    <t>Яка довжина бухти вогнепровідного шнура ОШП</t>
+  </si>
+  <si>
+    <t>Яка довжина бухти вогнепровідного шнура М-700 (США)?</t>
+  </si>
+  <si>
+    <t>5,1 метрів</t>
+  </si>
+  <si>
+    <t>10,1 метрів</t>
+  </si>
+  <si>
+    <t>15,2 метрів</t>
+  </si>
+  <si>
+    <t>20,3 метрів</t>
+  </si>
+  <si>
+    <t>25,5 метрів</t>
+  </si>
+  <si>
+    <t>До яких зарядів відноситься це визначення? 
+"Заряди, які мають форму витягнутих паралелепіпедів
+чи циліндрів, довжина яких більше ніж у п’ять разів перевищує їх найменші поперечні розміри, при цьому висота зарядів, що мають форму паралелепіпедів, не повинна перевищувати їх ширину"</t>
+  </si>
+  <si>
+    <t>Скількома витками детонуючого шнура необхідно обмотати шашку пресованого тротилу щоб можна було підірвати її без КД?</t>
+  </si>
+  <si>
+    <t>Мінімальний відрізок ОШП під час практичних підривних роботах (для навчання) повинен бути не менше</t>
+  </si>
+  <si>
+    <t>10 см</t>
+  </si>
+  <si>
+    <t>15 см</t>
+  </si>
+  <si>
+    <t>20 см</t>
+  </si>
+  <si>
+    <t>25 см</t>
+  </si>
+  <si>
+    <t>40 см</t>
+  </si>
+  <si>
+    <t>50 см</t>
+  </si>
+  <si>
+    <t>Мінімальний відрізок ОШП під час підриву льоду повинен бути не менше</t>
+  </si>
+  <si>
+    <t>Мінімальний відрізок ОШП в бойовій обстановці повинен бути не менше</t>
+  </si>
+  <si>
+    <t>Швидкість горіння вогнепровідного шнура ОШП на відкритому повітрі становить приблизно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вогнепровідний шнур ОШП складається з</t>
+  </si>
+  <si>
+    <t>Швидкість горіння вогнепровідного шнура М-700 (США) на відкритому повітрі становить приблизно</t>
+  </si>
+  <si>
+    <t>1,5 см/с</t>
+  </si>
+  <si>
+    <t>2 см/с</t>
+  </si>
+  <si>
+    <t>здійснення одночасного підриву декількох зарядів, а також для безкапсульного підривання зарядів ВР, закладених в важкодоступних місцях</t>
+  </si>
+  <si>
+    <t>для здійснення одночасного підриву декількох зарядів, а також для безкапсульного підривання зарядів ВР, закладених в важкодоступних місцях</t>
+  </si>
+  <si>
+    <t>Діаметр ДШ-В дорівнює ___–___ мм. ДШ-В підривається зі швидкістю не менше ___ метрів за секунду. Його слід оберігати від механічних пошкоджень, а також від дії вологи і вогню; від вогню ДШ може загоратися і повільно горіти; у разі прострілювання кулею він може детонувати. ДШ відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШ-В міститься ___ г вибухової речовини ТЕН. Під водою ДШ марки ДШ-В можна підривати за умови перебування його там не більше ___ годин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Діаметр ДШЕ-6 дорівнює ___ мм. ДШЕ-6 підривається зі швидкістю не менше ___ метрів за секунду. ДШЕ-6 відрізками довжиною ___ м зберігається згорнутим у бухти з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШЕ-6 міститься ___ г вибухової речовини </t>
+  </si>
+  <si>
+    <t>Якими способами здійснюються зростки ДШ?</t>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <t>Вариант 4</t>
+  </si>
+  <si>
+    <t>Вариант 5</t>
+  </si>
+  <si>
+    <t>Вариант 6</t>
+  </si>
+  <si>
+    <t>Який вариант зростки ДШ внакладку правильний?</t>
+  </si>
+  <si>
+    <t>Вариант А</t>
+  </si>
+  <si>
+    <t>Вариант Б</t>
+  </si>
+  <si>
+    <t>Підходити до зарядів, що відмовили при електричному способі підриву  дозволяється не раніше ніж через</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якщо заряди, з’єднані ДШ відмовили, то підходити до них дозволяється тільки одній особі і не раніше ніж через </t>
+  </si>
+  <si>
+    <t>Електроспалахувачі  призначені  для</t>
+  </si>
+  <si>
+    <t>ініціювання  капсулів-детонаторів  і спалахування  порохових  зарядів</t>
+  </si>
+  <si>
+    <t>ініціювання вибуху підривних зарядів</t>
+  </si>
+  <si>
+    <t>Електродетонатори  призначені  для</t>
+  </si>
+  <si>
+    <t>передачі електричного імпульсу від джерела живлення до ЕД</t>
+  </si>
+  <si>
+    <t>Який буде опір саперного дроту СПП-2 якщо його довжина складає 100 метрів?</t>
+  </si>
+  <si>
+    <t>Який буде опір саперного дроту СПП-2 якщо його довжина складає 200 метрів?</t>
+  </si>
+  <si>
+    <t>15 Ом</t>
+  </si>
+  <si>
+    <t>7,5 Ом</t>
+  </si>
+  <si>
+    <t>Який буде опір саперного дроту СПП-2 якщо його довжина складає 2 км?</t>
+  </si>
+  <si>
+    <t>75 Ом</t>
+  </si>
+  <si>
+    <t>150 Ом</t>
+  </si>
+  <si>
+    <t>Підривні машинки призначені для</t>
+  </si>
+  <si>
+    <t>ініціювання електродетонаторів нормальної чутливості (ЕДП та їх аналогів) при проведенні підривних робіт</t>
+  </si>
+  <si>
+    <t>передачі електричного імпульсу від джерела живлення до вибухового заряду</t>
+  </si>
+  <si>
+    <t>Тактико-технічні характеристики підривної машинки  «ВИХОР»</t>
+  </si>
+  <si>
+    <t>Максимальна кількість ЕД при послідовному з’єднанні</t>
+  </si>
+  <si>
+    <t>Максимальна кількість ЕД при паралельному з’єднанні</t>
+  </si>
+  <si>
+    <t>Максимальний опір електровибухової мережі, Ом</t>
+  </si>
+  <si>
+    <t>Напруга розряду, В</t>
+  </si>
+  <si>
+    <t>Вага, г</t>
+  </si>
+  <si>
+    <t>ініціювання електродетонаторів при проведенні підривних робіт</t>
+  </si>
+  <si>
+    <t>Тактико-технічні характеристики підривної машинки КПМ-3</t>
+  </si>
+  <si>
+    <t>Максимальний опір електровибухової мережі при послідовному з’єднанні, Ом</t>
+  </si>
+  <si>
+    <t>Максимальний опір електровибухової мережі при паралельному з’єднанні, Ом</t>
+  </si>
+  <si>
+    <t>Напруга, В</t>
+  </si>
+  <si>
+    <t>Тактико-технічні характеристики підривної машинки ПМ-4</t>
+  </si>
+  <si>
+    <t>Довжина проводової лінії, м</t>
+  </si>
+  <si>
+    <t>вистрибуюча</t>
+  </si>
+  <si>
+    <t>протигусенична</t>
+  </si>
+  <si>
+    <t>протибортова</t>
+  </si>
+  <si>
+    <t>протипранспортна</t>
+  </si>
+  <si>
+    <t>Picture38</t>
+  </si>
+  <si>
+    <t>Picture39</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-50</t>
   </si>
 </sst>
 </file>
@@ -809,23 +1043,25 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,13 +1281,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA66" sqref="AA66:AB66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="2"/>
     <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
@@ -1067,7 +1303,7 @@
     <col min="28" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1186,14 +1422,14 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1261,9 +1497,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1329,7 +1565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1397,7 +1633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1427,19 +1663,19 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>80</v>
@@ -1454,7 +1690,7 @@
         <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>80</v>
@@ -1483,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
@@ -1513,7 +1749,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB8" s="2">
@@ -1523,7 +1759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -1553,7 +1789,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="5" t="s">
+      <c r="AA9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB9" s="2">
@@ -1563,9 +1799,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -1593,7 +1829,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB10" s="2">
@@ -1603,7 +1839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1856,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1652,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1690,14 +1926,14 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="5" t="s">
+      <c r="AA12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
@@ -1754,22 +1990,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>227</v>
+    <row r="14" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="O14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1782,52 +2020,52 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="5" t="s">
+      <c r="AA14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="O15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1844,24 +2082,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1874,37 +2112,37 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="5" t="s">
+      <c r="AA16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1917,31 +2155,31 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="5" t="s">
+      <c r="AA17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1954,27 +2192,27 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="5" t="s">
+      <c r="AA18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1987,16 +2225,16 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="5" t="s">
+      <c r="AA19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O20" s="3">
         <v>10</v>
@@ -2020,40 +2258,40 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="AA20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2063,47 +2301,42 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="AA21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="3">
-        <v>50</v>
-      </c>
-      <c r="P22" s="3">
-        <v>40</v>
-      </c>
-      <c r="Q22">
-        <v>55</v>
-      </c>
-      <c r="R22">
-        <v>50</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2111,50 +2344,45 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB22" s="5">
+      <c r="AA22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB22" s="2">
         <v>2</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="3">
-        <v>150</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23">
-        <v>150</v>
-      </c>
-      <c r="R23">
-        <v>75</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2162,50 +2390,45 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB23" s="5">
+      <c r="AA23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB23" s="2">
         <v>2</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O24" s="3">
-        <v>360</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q24">
-        <v>100</v>
-      </c>
-      <c r="R24">
-        <v>65</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2213,50 +2436,45 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB24" s="5">
+      <c r="AA24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB24" s="2">
         <v>2</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="150" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>133</v>
+        <v>249</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2264,35 +2482,31 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>134</v>
+      <c r="AA25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="O26" s="3" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2301,312 +2515,372 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="AA26" s="5" t="s">
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="3">
+        <v>50</v>
+      </c>
+      <c r="P27" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>55</v>
+      </c>
+      <c r="R27" s="6">
+        <v>50</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="3">
+        <v>150</v>
+      </c>
+      <c r="P28" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>150</v>
+      </c>
+      <c r="R28" s="6">
+        <v>75</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="3">
+        <v>360</v>
+      </c>
+      <c r="P29" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>100</v>
+      </c>
+      <c r="R29" s="6">
+        <v>65</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="AA31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="O32" s="2">
+        <v>5</v>
+      </c>
+      <c r="P32" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>6500</v>
+      </c>
+      <c r="R32" s="2">
+        <v>50</v>
+      </c>
+      <c r="S32" s="2">
+        <v>13</v>
+      </c>
+      <c r="T32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="O33" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="P33" s="2">
+        <v>6200</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>50</v>
+      </c>
+      <c r="R33" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="O27" s="2">
-        <v>5</v>
-      </c>
-      <c r="P27" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>6500</v>
-      </c>
-      <c r="R27" s="2">
-        <v>50</v>
-      </c>
-      <c r="S27" s="2">
-        <v>24</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB35" s="2">
@@ -2616,29 +2890,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB36" s="2">
@@ -2648,29 +2922,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AB37" s="2">
@@ -2680,332 +2954,1093 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="B38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="AA42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="O43" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="AA43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O54" s="2">
+        <v>50</v>
+      </c>
+      <c r="P54" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>150</v>
+      </c>
+      <c r="R54" s="2">
+        <v>400</v>
+      </c>
+      <c r="S54" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O55" s="2">
+        <v>200</v>
+      </c>
+      <c r="P55" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>600</v>
+      </c>
+      <c r="R55" s="2">
+        <v>15</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1600</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2300</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O56" s="2">
+        <v>5</v>
+      </c>
+      <c r="P56" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>20</v>
+      </c>
+      <c r="R56" s="2">
+        <v>6</v>
+      </c>
+      <c r="S56" s="2">
+        <v>50</v>
+      </c>
+      <c r="T56" s="2">
+        <v>410</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="P67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="R67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U45" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="P68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="R68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+      <c r="T68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB46" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O47" s="2">
+      <c r="AA68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O69" s="2">
         <v>10</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P69" s="2">
         <v>0.6</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q69" s="2">
         <v>30</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R69" s="2">
         <v>1.6</v>
       </c>
-      <c r="AA47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB47" s="5">
+      <c r="AA69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB69" s="2">
         <v>2</v>
       </c>
     </row>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90041969-EA30-4D8A-9B51-B75DE315CBF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B7DB6-2408-4F1B-AB93-A2D9F46E36FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="377">
   <si>
     <t>Question</t>
   </si>
@@ -592,76 +592,12 @@
     <t>серцевини бризантної ВР та пороху покритих вологоізолюючою оболонкою</t>
   </si>
   <si>
-    <t>Основні тактико-технічні характеристики протипіхотної міни МОН-50</t>
-  </si>
-  <si>
-    <t>Маса</t>
-  </si>
-  <si>
-    <t>2 кг</t>
-  </si>
-  <si>
-    <t>Маса заряду</t>
-  </si>
-  <si>
-    <t>0,7 кг</t>
-  </si>
-  <si>
-    <t>Тип заряду</t>
-  </si>
-  <si>
-    <t>ПВВ-5А</t>
-  </si>
-  <si>
-    <t>Горизонтальний кут розкидання осколків</t>
-  </si>
-  <si>
-    <t>54°</t>
-  </si>
-  <si>
-    <t>Радіус суцільного ураження</t>
-  </si>
-  <si>
-    <t>50 / 58 м</t>
-  </si>
-  <si>
-    <t>Ширина зони суцільного ураження на відстані 50 / 58 м</t>
-  </si>
-  <si>
-    <t>45 / 54 м</t>
-  </si>
-  <si>
-    <t>Дальність ураження легкового та вантажного автотранспорту та живої сили в ньому</t>
-  </si>
-  <si>
-    <t>до 30 м</t>
-  </si>
-  <si>
-    <t>Дальність розльоту осколків від корпусу у тиловому та бічному напрямах</t>
-  </si>
-  <si>
-    <t>до 40 м</t>
-  </si>
-  <si>
-    <t>Дальність польоту забійних осколків</t>
-  </si>
-  <si>
-    <t>80 / 85 м</t>
-  </si>
-  <si>
-    <t>Порядок встановлення міни МОН-50 в грунт</t>
-  </si>
-  <si>
     <t>послабити пробку одного запального гнізда</t>
   </si>
   <si>
     <t>повернути міну опуклою стороною (стрілкою на прицілі) в напрямку цілі</t>
   </si>
   <si>
-    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міні
-стійке положення</t>
-  </si>
-  <si>
     <t>користуючись прицільною щілиною, навести міну на ціль (віху або місцевий предмет, який перебуває на місці очікуваної цілі), при наведенні відстань від ока навідника до щілини повинно бути 140-150 мм, лінія прицілювання повинна йти від ока навідника через середину жолоба на рівні нижньої площини щілини на центр цілі, для надання міні необхідного положення вона повертається на шарнірах і ніжках вдавлюється в ґрунт на необхідну глибину</t>
   </si>
   <si>
@@ -672,9 +608,6 @@
   </si>
   <si>
     <t>запобігання розривання зрощень</t>
-  </si>
-  <si>
-    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міністійке положення</t>
   </si>
   <si>
     <t>порохової серцевини з однією направляючою ниткою всередині внутрішніх і зовнішніх обплетень і оболонки</t>
@@ -920,9 +853,6 @@
     <t>Підривні машинки призначені для</t>
   </si>
   <si>
-    <t>ініціювання електродетонаторів нормальної чутливості (ЕДП та їх аналогів) при проведенні підривних робіт</t>
-  </si>
-  <si>
     <t>передачі електричного імпульсу від джерела живлення до вибухового заряду</t>
   </si>
   <si>
@@ -984,6 +914,253 @@
   </si>
   <si>
     <t>Дайте повну характеристику міни МОН-50</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни ОЗМ-72</t>
+  </si>
+  <si>
+    <t>відрити лунку по діаметру міни глубиною 18-20 см та встановити міну в лунці</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни ОЗМ-72 в грунт</t>
+  </si>
+  <si>
+    <t>вигвинтити пробку, встановити в міну капсуль детонатора №8-А дульцем вниз і знову загвинтити пробку, вільний простір навколо міни засипати ґрунтом і утрамбувати його кінцем дерев'яного кілочка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">забити на відстані 0,5 м від міни в бік противника металевий кілочок (кілочок забивається виїмкою в бік міни, висота кілочка над поверхнею ґрунту повинна бути 15-18 см) </t>
+  </si>
+  <si>
+    <t>встановити трос з карабінами, зачепивши карабін, прикріплений до дроті, за скобу пробки і протягнувши в отвір кілочка два інші карабіна, не допускаючи скручування троса, зачепити за карабін троса кінець дротяної розтяжки і, рухаючись уздовж фронту, розмотати її на половину довжини</t>
+  </si>
+  <si>
+    <t>забити на відстані 7,5 м від металевого кілочка дерев'яний кілочок, пропустити розтяжку через проріз на його верхньому кінці і продовжуючи рух, розмотати розтяжку на всю довжину</t>
+  </si>
+  <si>
+    <t>утримуючи кінець розтяжки, забити біля кінця розтяжки другий дерев'яний кілочок і прив'язати до нього кінець розтяжки, натягнувши її з невеликою слабиною провисання розтяжки в середній частині між кілочками повинно бути 2-3 см, натягнути у тому ж порядку другу розтяжку</t>
+  </si>
+  <si>
+    <t>підійти до міні і зняти ковпачок, що закриває капсуль запальник, перевірити наявність і справність метало елемента і різака у підривника МУВ-3 (МУВ-4) і нагвинтити підривник на втулку з капсулем запальником</t>
+  </si>
+  <si>
+    <t>бойову чеку підривника повернути кільцем в сторону металевого кілочка, відстебнути карабін від скоби, пробки і зачепити його за бойову чеку (якщо при зачепленні карабіна за чеку він витягується, у цьому випадку натяг розтяжки послаблюється нахилом металевого кілочка в сторону)</t>
+  </si>
+  <si>
+    <t>замаскувати міну (шар ґрунту зверху міни повинен бути не більше 2-3 см)</t>
+  </si>
+  <si>
+    <t>переконавшись у надійному стягнення бойової чеки, висмикнути з детонатора запобіжну чеку</t>
+  </si>
+  <si>
+    <t>відійти від міни, не зачіпаючи розтяжки</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни ТМ-62М</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-50</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни ОЗМ-72</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міниТМ-62М</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни ТМ-62М</t>
+  </si>
+  <si>
+    <t>викрутити (вийняти) пробку з міни та переконатися у правильному положенні гумової прокладки в міні</t>
+  </si>
+  <si>
+    <t>вкрутити підривник у міну і підтягнути його ключем</t>
+  </si>
+  <si>
+    <t>встановити міну в лунку чи на поверхню</t>
+  </si>
+  <si>
+    <t>зняти з підривника запобіжну чеку та різко натиснути кнопку пускача</t>
+  </si>
+  <si>
+    <t>замаскувати міну</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-100</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-100</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-100</t>
+  </si>
+  <si>
+    <t>Вага міни, кг</t>
+  </si>
+  <si>
+    <t>Вага заряду, кг</t>
+  </si>
+  <si>
+    <t>Радіус суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>Дальність ураження легкового та вантажного автотранспорту та живої сили в ньому, м</t>
+  </si>
+  <si>
+    <t>Дальність розльоту осколків від корпусу у тиловому та бічному напрямах, м</t>
+  </si>
+  <si>
+    <t>Дальність польоту забійних осколків, м</t>
+  </si>
+  <si>
+    <t>50 / 58</t>
+  </si>
+  <si>
+    <t>до 30</t>
+  </si>
+  <si>
+    <t>до 40</t>
+  </si>
+  <si>
+    <t>80 / 85</t>
+  </si>
+  <si>
+    <t>Висота вибуху міни, м</t>
+  </si>
+  <si>
+    <t>Дальність польоту окремих  забійних осколків, м</t>
+  </si>
+  <si>
+    <t>0,6-0,9</t>
+  </si>
+  <si>
+    <t>до 50</t>
+  </si>
+  <si>
+    <t>Вага ВР при споряджені тротилом, кг</t>
+  </si>
+  <si>
+    <t>Вага ВР при споряджені сумішшю МС або ТГА, кг</t>
+  </si>
+  <si>
+    <t>6,5 - 9,5</t>
+  </si>
+  <si>
+    <t>9,5 - 10</t>
+  </si>
+  <si>
+    <t>Дальність розльоту забійних осколків в тильному і бічних напрямках, м</t>
+  </si>
+  <si>
+    <t>до 160</t>
+  </si>
+  <si>
+    <t>прокласти електровибухову мережу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">забити костиль в дерево, пень, стовп, тріщину в скелі, в стіну або інший місцевий предмет, що служить основою для встановлення міни </t>
+  </si>
+  <si>
+    <t>закріпити корпус міни на скобі і закрутити барашкові гайки так, щоб міну можна було повертати з невеликим зусиллям</t>
+  </si>
+  <si>
+    <t>закріпити скобу разом з міною в одному з отворів забитого костиля та нагвинтити барашкову гайку</t>
+  </si>
+  <si>
+    <t>навести міну на ціль за допомогою прицільного пристосування</t>
+  </si>
+  <si>
+    <t>затягнути до відказу барашкові гайки і ще раз перевірити правильність прицілювання</t>
+  </si>
+  <si>
+    <t>перевірити справність вибухової мережі та електродетонатора ЕДП-р</t>
+  </si>
+  <si>
+    <t>приєднати електродетонатор до вибухової мережі та ізолювати зростки</t>
+  </si>
+  <si>
+    <t>викрутити пробку із запального гнізда міни і вкрутити в нього електродетонатор ЕДП-р</t>
+  </si>
+  <si>
+    <t>замаскувати міну та дроти</t>
+  </si>
+  <si>
+    <t>після відходу особового складу із зони краження, перевірити справність електровибухової мережи з пункту управління</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-90</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-90</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-90</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-50</t>
+  </si>
+  <si>
+    <t>Дальність суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження, м</t>
+  </si>
+  <si>
+    <t>до 100</t>
+  </si>
+  <si>
+    <t>забити за допомогою молотка або сокири штир у дерево (стовп) до упору в виступ так, щоб різьбовий отвір знаходився по можливості вертикально</t>
+  </si>
+  <si>
+    <t>ввернути з підтиском штангу у фланець міни</t>
+  </si>
+  <si>
+    <t>навернути на штангу рукоятку</t>
+  </si>
+  <si>
+    <t>притримуючи міну за корпус, повернути її нижнім кінцем штанги в різьбовий отвір кришки ящика або в різьбовий отвір штиря</t>
+  </si>
+  <si>
+    <t>відкинути ніжки вниз, розвести їх в сторони і втиснути в грунт на глибину, що забезпечує міні стійке положення</t>
+  </si>
+  <si>
+    <t>викрутити пробку запального гнізда міни</t>
+  </si>
+  <si>
+    <t>націлити міну на віху по вертикалі та по лінії горизонту</t>
+  </si>
+  <si>
+    <t>Дайте повну характеристику міни МОН-200</t>
+  </si>
+  <si>
+    <t>Основні тактико-технічні характеристики міни МОН-200</t>
+  </si>
+  <si>
+    <t>Порядок встановлення міни МОН-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">підключити електродетонатор ЕДП-р до провідної мережі та вкрутити в запальне гніздо міни </t>
+  </si>
+  <si>
+    <t>Для прицілювання міни використовується віха заввишки
+___ м, що встановлюється на відстані ___-___ метрів від міни. В тому випадку, коли обстановка не дозволяє встановити віху, наведення міни необхідно здійснювати на направлення імовірної появи противника по місцевим орієнтирам, що розташовані на відстані ___-___ метрів від міни</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження на відстані 100 метрів, м</t>
+  </si>
+  <si>
+    <t>Ширина зони суцільного ураження на відстані 200 метрів, м</t>
+  </si>
+  <si>
+    <t>10,5 - 14,5</t>
+  </si>
+  <si>
+    <t>до 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ініціювання  капсулів-детонаторів  при проведенні підривних робіт </t>
+  </si>
+  <si>
+    <t>ініціювання спалахування  порохових  зарядів</t>
   </si>
 </sst>
 </file>
@@ -1280,16 +1457,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA66" sqref="AA66:AB66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
@@ -1491,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="AB3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>59</v>
@@ -1499,7 +1677,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1559,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="AB4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>60</v>
@@ -1627,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="AB5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>61</v>
@@ -1716,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="AB7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
@@ -1759,7 +1937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
@@ -1801,7 +1979,7 @@
     </row>
     <row r="10" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -1856,7 +2034,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1885,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,12 +2165,12 @@
         <v>9</v>
       </c>
       <c r="AB13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -2004,7 +2182,7 @@
         <v>141</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>87</v>
@@ -2079,12 +2257,12 @@
         <v>9</v>
       </c>
       <c r="AB15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>186</v>
@@ -2093,7 +2271,7 @@
         <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>187</v>
@@ -2121,7 +2299,7 @@
     </row>
     <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>94</v>
@@ -2164,7 +2342,7 @@
     </row>
     <row r="18" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>101</v>
@@ -2262,7 +2440,7 @@
         <v>109</v>
       </c>
       <c r="AB20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2270,13 +2448,13 @@
         <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
@@ -2288,10 +2466,10 @@
         <v>112</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2305,33 +2483,33 @@
         <v>113</v>
       </c>
       <c r="AB21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2356,28 +2534,28 @@
     </row>
     <row r="23" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2402,28 +2580,28 @@
     </row>
     <row r="24" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2448,28 +2626,28 @@
     </row>
     <row r="25" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2491,22 +2669,22 @@
     </row>
     <row r="26" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2571,7 +2749,7 @@
         <v>115</v>
       </c>
       <c r="AB27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>59</v>
@@ -2622,7 +2800,7 @@
         <v>115</v>
       </c>
       <c r="AB28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC28" s="2" t="s">
         <v>60</v>
@@ -2673,7 +2851,7 @@
         <v>115</v>
       </c>
       <c r="AB29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>61</v>
@@ -2693,7 +2871,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>129</v>
@@ -2711,7 +2889,7 @@
         <v>129</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -2724,7 +2902,7 @@
         <v>113</v>
       </c>
       <c r="AB30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="135" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2944,7 @@
     </row>
     <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2798,12 +2976,12 @@
         <v>109</v>
       </c>
       <c r="AB32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2829,12 +3007,12 @@
         <v>109</v>
       </c>
       <c r="AB33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>136</v>
@@ -2860,7 +3038,7 @@
     </row>
     <row r="35" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>160</v>
@@ -2892,7 +3070,7 @@
     </row>
     <row r="36" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>160</v>
@@ -2924,7 +3102,7 @@
     </row>
     <row r="37" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>160</v>
@@ -2956,60 +3134,60 @@
     </row>
     <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AB38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>67</v>
@@ -3032,7 +3210,7 @@
         <v>141</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>141</v>
@@ -3091,29 +3269,31 @@
         <v>9</v>
       </c>
       <c r="AB41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3128,24 +3308,26 @@
     </row>
     <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3166,7 +3348,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>151</v>
@@ -3202,12 +3384,12 @@
         <v>115</v>
       </c>
       <c r="AB44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>159</v>
@@ -3239,7 +3421,7 @@
     </row>
     <row r="46" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>159</v>
@@ -3271,7 +3453,7 @@
     </row>
     <row r="47" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>159</v>
@@ -3329,22 +3511,22 @@
     </row>
     <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>67</v>
@@ -3358,22 +3540,22 @@
     </row>
     <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>67</v>
@@ -3387,22 +3569,22 @@
     </row>
     <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>67</v>
@@ -3416,7 +3598,7 @@
     </row>
     <row r="52" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>170</v>
@@ -3428,13 +3610,13 @@
         <v>172</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>173</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="AA52" s="2" t="s">
         <v>67</v>
@@ -3445,19 +3627,22 @@
     </row>
     <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>67</v>
@@ -3468,22 +3653,22 @@
     </row>
     <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O54" s="2">
         <v>50</v>
@@ -3504,7 +3689,7 @@
         <v>115</v>
       </c>
       <c r="AB54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC54" s="2" t="s">
         <v>59</v>
@@ -3512,25 +3697,25 @@
     </row>
     <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3554,7 +3739,7 @@
         <v>115</v>
       </c>
       <c r="AB55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC55" s="2" t="s">
         <v>60</v>
@@ -3562,25 +3747,25 @@
     </row>
     <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -3604,7 +3789,7 @@
         <v>115</v>
       </c>
       <c r="AB56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC56" s="2" t="s">
         <v>61</v>
@@ -3751,7 +3936,7 @@
     </row>
     <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>182</v>
@@ -3777,7 +3962,7 @@
     </row>
     <row r="63" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>182</v>
@@ -3803,7 +3988,7 @@
     </row>
     <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>182</v>
@@ -3827,24 +4012,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>177</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>67</v>
@@ -3853,54 +4038,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="AA66" s="4" t="s">
         <v>9</v>
@@ -3908,122 +4093,113 @@
       <c r="AB66" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC66" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>197</v>
+        <v>325</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>192</v>
+        <v>326</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.7</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="AB67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>113</v>
       </c>
       <c r="AB68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O69" s="2">
         <v>10</v>
@@ -4041,11 +4217,901 @@
         <v>109</v>
       </c>
       <c r="AB69" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R71" s="2">
+        <v>25</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P74" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O77" s="2">
+        <v>5</v>
+      </c>
+      <c r="P77" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="S77" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O80" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>90</v>
+      </c>
+      <c r="R80" s="2">
+        <v>60</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P82" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>80</v>
+      </c>
+      <c r="R82" s="2">
+        <v>50</v>
+      </c>
+      <c r="S82" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O84" s="2">
+        <v>25</v>
+      </c>
+      <c r="P84" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="S84" s="2">
+        <v>50</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="11" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B7DB6-2408-4F1B-AB93-A2D9F46E36FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034F30E-3820-4FE4-87A5-FD4A69409A9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="376">
   <si>
     <t>Question</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>3-4 витка</t>
-  </si>
-  <si>
-    <t>послідовний</t>
   </si>
   <si>
     <t>вистачить одного витка</t>
@@ -1461,8 +1458,8 @@
   </sheetPr>
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="4" spans="1:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="10" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -2034,7 +2031,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="14" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>76</v>
@@ -2179,10 +2176,10 @@
         <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>87</v>
@@ -2216,19 +2213,19 @@
         <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>92</v>
@@ -2262,19 +2259,19 @@
     </row>
     <row r="16" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>100</v>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>94</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="18" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>101</v>
@@ -2448,13 +2445,13 @@
         <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
@@ -2466,10 +2463,10 @@
         <v>112</v>
       </c>
       <c r="Q21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2488,28 +2485,28 @@
     </row>
     <row r="22" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2534,28 +2531,28 @@
     </row>
     <row r="23" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2580,28 +2577,28 @@
     </row>
     <row r="24" spans="2:29" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="O24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2626,28 +2623,28 @@
     </row>
     <row r="25" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2669,22 +2666,22 @@
     </row>
     <row r="26" spans="2:29" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2871,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>129</v>
@@ -2889,7 +2886,7 @@
         <v>129</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -2910,10 +2907,10 @@
         <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>131</v>
@@ -2944,7 +2941,7 @@
     </row>
     <row r="32" spans="2:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2981,7 +2978,7 @@
     </row>
     <row r="33" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3012,10 +3009,10 @@
     </row>
     <row r="34" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>133</v>
@@ -3038,25 +3035,25 @@
     </row>
     <row r="35" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>67</v>
@@ -3070,25 +3067,25 @@
     </row>
     <row r="36" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>67</v>
@@ -3102,25 +3099,25 @@
     </row>
     <row r="37" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>67</v>
@@ -3134,37 +3131,37 @@
     </row>
     <row r="38" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="O38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="Q38" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
@@ -3175,19 +3172,19 @@
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>67</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="40" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>76</v>
@@ -3207,13 +3204,13 @@
         <v>87</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>67</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="41" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>89</v>
@@ -3233,19 +3230,19 @@
         <v>93</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>92</v>
@@ -3254,16 +3251,16 @@
         <v>93</v>
       </c>
       <c r="P41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>90</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA41" s="4" t="s">
         <v>9</v>
@@ -3274,26 +3271,26 @@
     </row>
     <row r="42" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3308,26 +3305,26 @@
     </row>
     <row r="43" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3342,43 +3339,43 @@
     </row>
     <row r="44" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="P44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>115</v>
@@ -3389,25 +3386,25 @@
     </row>
     <row r="45" spans="1:29" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA45" s="2" t="s">
         <v>67</v>
@@ -3421,25 +3418,25 @@
     </row>
     <row r="46" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>67</v>
@@ -3453,25 +3450,25 @@
     </row>
     <row r="47" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="O47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>67</v>
@@ -3485,22 +3482,22 @@
     </row>
     <row r="48" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>67</v>
@@ -3511,22 +3508,22 @@
     </row>
     <row r="49" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>67</v>
@@ -3540,22 +3537,22 @@
     </row>
     <row r="50" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="O50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>67</v>
@@ -3569,22 +3566,22 @@
     </row>
     <row r="51" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="O51" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>67</v>
@@ -3598,25 +3595,25 @@
     </row>
     <row r="52" spans="1:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA52" s="2" t="s">
         <v>67</v>
@@ -3627,22 +3624,22 @@
     </row>
     <row r="53" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="O53" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>67</v>
@@ -3653,22 +3650,22 @@
     </row>
     <row r="54" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="O54" s="2">
         <v>50</v>
@@ -3697,25 +3694,25 @@
     </row>
     <row r="55" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3747,25 +3744,25 @@
     </row>
     <row r="56" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -3797,19 +3794,19 @@
     </row>
     <row r="57" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>98</v>
@@ -3826,22 +3823,22 @@
     </row>
     <row r="58" spans="1:29" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA58" s="2" t="s">
         <v>67</v>
@@ -3855,22 +3852,22 @@
     </row>
     <row r="59" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>67</v>
@@ -3884,22 +3881,22 @@
     </row>
     <row r="60" spans="1:29" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="O60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA60" s="2" t="s">
         <v>67</v>
@@ -3910,22 +3907,22 @@
     </row>
     <row r="61" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O61" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA61" s="2" t="s">
         <v>67</v>
@@ -3936,22 +3933,22 @@
     </row>
     <row r="62" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="AA62" s="2" t="s">
         <v>67</v>
@@ -3962,22 +3959,22 @@
     </row>
     <row r="63" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA63" s="2" t="s">
         <v>67</v>
@@ -3988,22 +3985,22 @@
     </row>
     <row r="64" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA64" s="2" t="s">
         <v>67</v>
@@ -4014,22 +4011,22 @@
     </row>
     <row r="65" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>67</v>
@@ -4040,52 +4037,52 @@
     </row>
     <row r="66" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O66" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA66" s="4" t="s">
         <v>9</v>
@@ -4099,25 +4096,25 @@
     </row>
     <row r="67" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="O67" s="2">
         <v>2</v>
@@ -4126,16 +4123,16 @@
         <v>0.7</v>
       </c>
       <c r="Q67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="S67" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>115</v>
@@ -4149,43 +4146,43 @@
     </row>
     <row r="68" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="O68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T68" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>113</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="69" spans="2:29" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="2">
         <v>10</v>
@@ -4225,55 +4222,55 @@
     </row>
     <row r="70" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O70" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA70" s="4" t="s">
         <v>9</v>
@@ -4287,22 +4284,22 @@
     </row>
     <row r="71" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="O71" s="2">
         <v>5</v>
@@ -4311,13 +4308,13 @@
         <v>0.66</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R71" s="2">
         <v>25</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA71" s="2" t="s">
         <v>115</v>
@@ -4331,73 +4328,73 @@
     </row>
     <row r="72" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="O72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="R72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T72" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="U72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W72" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M72" s="2" t="s">
+      <c r="X72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y72" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="AA72" s="2" t="s">
         <v>113</v>
@@ -4411,52 +4408,52 @@
     </row>
     <row r="73" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="K73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="AA73" s="4" t="s">
         <v>9</v>
@@ -4470,19 +4467,19 @@
     </row>
     <row r="74" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="O74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P74" s="2">
         <v>7</v>
@@ -4502,37 +4499,37 @@
     </row>
     <row r="75" spans="2:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="O75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="R75" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="S75" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="AA75" s="2" t="s">
         <v>113</v>
@@ -4546,52 +4543,52 @@
     </row>
     <row r="76" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O76" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA76" s="4" t="s">
         <v>9</v>
@@ -4605,22 +4602,22 @@
     </row>
     <row r="77" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O77" s="2">
         <v>5</v>
@@ -4629,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S77" s="2">
         <v>30</v>
@@ -4649,73 +4646,73 @@
     </row>
     <row r="78" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="O78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="R78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T78" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="U78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W78" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="X78" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y78" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="AA78" s="2" t="s">
         <v>113</v>
@@ -4729,52 +4726,52 @@
     </row>
     <row r="79" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O79" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA79" s="4" t="s">
         <v>9</v>
@@ -4788,22 +4785,22 @@
     </row>
     <row r="80" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E80" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O80" s="2">
         <v>12.1</v>
@@ -4818,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>115</v>
@@ -4832,61 +4829,61 @@
     </row>
     <row r="81" spans="2:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="K81" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q81" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="R81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O81" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="U81" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA81" s="2" t="s">
         <v>113</v>
@@ -4900,7 +4897,7 @@
     </row>
     <row r="82" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O82" s="2">
         <v>1.5</v>
@@ -4929,52 +4926,52 @@
     </row>
     <row r="83" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O83" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA83" s="4" t="s">
         <v>9</v>
@@ -4988,22 +4985,22 @@
     </row>
     <row r="84" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O84" s="2">
         <v>25</v>
@@ -5012,10 +5009,10 @@
         <v>12</v>
       </c>
       <c r="Q84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="S84" s="2">
         <v>50</v>
@@ -5032,73 +5029,73 @@
     </row>
     <row r="85" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="O85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q85" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="R85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="U85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W85" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="M85" s="2" t="s">
+      <c r="X85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y85" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="AA85" s="2" t="s">
         <v>113</v>

--- a/questions3.xlsx
+++ b/questions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456FD984-02EC-43AB-A8FC-09991134C767}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5184C841-7809-4906-8212-8479908BAD89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="375">
   <si>
     <t>Question</t>
   </si>
@@ -748,21 +748,9 @@
     <t>Якими способами здійснюються зростки ДШ?</t>
   </si>
   <si>
-    <t>Вариант 1</t>
-  </si>
-  <si>
-    <t>Вариант 2</t>
-  </si>
-  <si>
-    <t>Вариант 4</t>
-  </si>
-  <si>
     <t>Який вариант зростки ДШ внакладку правильний?</t>
   </si>
   <si>
-    <t>Вариант Б</t>
-  </si>
-  <si>
     <t>Підходити до зарядів, що відмовили при електричному способі підриву  дозволяється не раніше ніж через</t>
   </si>
   <si>
@@ -1000,9 +988,6 @@
     <t>замаскувати міну та дроти</t>
   </si>
   <si>
-    <t>після відходу особового складу із зони краження, перевірити справність електровибухової мережи з пункту управління</t>
-  </si>
-  <si>
     <t>Порядок встановлення міни МОН-50</t>
   </si>
   <si>
@@ -1018,9 +1003,6 @@
     <t>ініціювання спалахування  порохових  зарядів</t>
   </si>
   <si>
-    <t>ДШ зберігається згорнутим у бухти відрізками довжиною ___ м  з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШ-В міститься ___ г вибухової речовини ТЕН. Під водою ДШ марки ДШ-В можна підривати за умови перебування його там не більше ___ годин</t>
-  </si>
-  <si>
     <t xml:space="preserve">ДШЕ-6 зберігається згорнутим у бухти відрізками довжиною ___ м з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШЕ-6 міститься ___ г вибухової речовини </t>
   </si>
   <si>
@@ -1166,6 +1148,12 @@
   </si>
   <si>
     <t>Варіант 6</t>
+  </si>
+  <si>
+    <t>ДШ зберігається згорнутим у бухти відрізками довжиною ___ м  з покритими мастикою кінцями в сухих прохолодних приміщеннях окремо від ВШ і зарядів. В одному погонному метрі  ДШ міститься ___ г вибухової речовини ТЕН. Під водою ДШ марки ДШ-В можна підривати за умови перебування його там не більше ___ годин</t>
+  </si>
+  <si>
+    <t>після відходу особового складу із зони ураження, перевірити справність електровибухової мережи з пункту управління</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1461,8 @@
   </sheetPr>
   <dimension ref="A1:AC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2125,25 +2113,25 @@
     </row>
     <row r="13" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -2165,22 +2153,22 @@
     </row>
     <row r="14" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2213,22 +2201,22 @@
     </row>
     <row r="15" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2261,22 +2249,22 @@
     </row>
     <row r="16" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2287,7 +2275,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -2309,10 +2297,10 @@
     </row>
     <row r="17" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>90</v>
@@ -2321,10 +2309,10 @@
         <v>89</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2357,22 +2345,22 @@
     </row>
     <row r="18" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2383,7 +2371,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -2405,26 +2393,26 @@
     </row>
     <row r="19" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H19" s="10"/>
       <c r="O19" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2449,22 +2437,22 @@
     </row>
     <row r="20" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2475,7 +2463,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2500,22 +2488,22 @@
     </row>
     <row r="21" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2526,7 +2514,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -3352,7 +3340,7 @@
     </row>
     <row r="41" spans="1:29" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3380,7 +3368,7 @@
     </row>
     <row r="42" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3394,7 +3382,7 @@
         <v>50</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>109</v>
@@ -3527,37 +3515,37 @@
     </row>
     <row r="47" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>241</v>
+        <v>370</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>9</v>
@@ -3568,19 +3556,19 @@
     </row>
     <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>67</v>
@@ -3615,7 +3603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>141</v>
       </c>
@@ -3667,26 +3655,26 @@
     </row>
     <row r="51" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -3701,26 +3689,26 @@
     </row>
     <row r="52" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -3892,22 +3880,22 @@
     </row>
     <row r="58" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="O58" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AA58" s="2" t="s">
         <v>67</v>
@@ -3921,22 +3909,22 @@
     </row>
     <row r="59" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="O59" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>67</v>
@@ -3950,22 +3938,22 @@
     </row>
     <row r="60" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="O60" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AA60" s="2" t="s">
         <v>67</v>
@@ -4008,22 +3996,22 @@
     </row>
     <row r="62" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AA62" s="2" t="s">
         <v>67</v>
@@ -4034,19 +4022,19 @@
     </row>
     <row r="63" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="O63" s="2">
         <v>50</v>
@@ -4072,22 +4060,22 @@
     </row>
     <row r="64" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O64" s="2">
         <v>200</v>
@@ -4116,22 +4104,22 @@
     </row>
     <row r="65" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="O65" s="2">
         <v>5</v>
@@ -4299,7 +4287,7 @@
     </row>
     <row r="71" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>173</v>
@@ -4351,7 +4339,7 @@
     </row>
     <row r="73" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>173</v>
@@ -4403,25 +4391,25 @@
     </row>
     <row r="75" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
@@ -4446,25 +4434,25 @@
     </row>
     <row r="76" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
@@ -4489,25 +4477,25 @@
     </row>
     <row r="77" spans="1:29" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -4532,7 +4520,7 @@
     </row>
     <row r="78" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>205</v>
@@ -4544,16 +4532,16 @@
         <v>212</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>207</v>
@@ -4591,25 +4579,25 @@
     </row>
     <row r="79" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="O79" s="2">
         <v>2</v>
@@ -4618,16 +4606,16 @@
         <v>0.7</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AA79" s="2" t="s">
         <v>115</v>
@@ -4641,10 +4629,10 @@
     </row>
     <row r="80" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>180</v>
@@ -4668,7 +4656,7 @@
         <v>180</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>181</v>
@@ -4717,7 +4705,7 @@
     </row>
     <row r="82" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>205</v>
@@ -4729,16 +4717,16 @@
         <v>212</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>207</v>
@@ -4762,7 +4750,7 @@
         <v>207</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="R82" s="2" t="s">
         <v>211</v>
@@ -4779,22 +4767,22 @@
     </row>
     <row r="83" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O83" s="2">
         <v>5</v>
@@ -4803,13 +4791,13 @@
         <v>0.66</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="R83" s="2">
         <v>25</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AA83" s="2" t="s">
         <v>115</v>
@@ -4823,73 +4811,73 @@
     </row>
     <row r="84" spans="2:29" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="H84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="O84" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T84" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="U84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W84" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L84" s="2" t="s">
+      <c r="X84" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y84" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="X84" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y84" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="AA84" s="2" t="s">
         <v>113</v>
@@ -4903,7 +4891,7 @@
     </row>
     <row r="85" spans="2:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>205</v>
@@ -4915,16 +4903,16 @@
         <v>212</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>207</v>
@@ -4960,24 +4948,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:29" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O86" s="2">
         <v>5</v>
@@ -4986,10 +4974,10 @@
         <v>2</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S86" s="2">
         <v>30</v>
@@ -5004,75 +4992,75 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:29" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="M87" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="O87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="T87" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="U87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="T87" s="2" t="s">
+      <c r="X87" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="U87" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="Y87" s="2" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="AA87" s="2" t="s">
         <v>113</v>
